--- a/draft/日历.xlsx
+++ b/draft/日历.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24922"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24701"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\WENCHAO DING\Desktop\note\draft\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="d:\Desktop\note\draft\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD2DD6F3-3F16-4DD3-BE00-C44ED4CB54AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F770161B-91CE-475C-AE74-32DCD98C5571}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4620" yWindow="2172" windowWidth="23040" windowHeight="12660" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="17496" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="1月" sheetId="1" r:id="rId1"/>
@@ -26,14 +26,13 @@
     <sheet name="11月" sheetId="11" r:id="rId11"/>
     <sheet name="12月" sheetId="12" r:id="rId12"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -41,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="445" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="449" uniqueCount="117">
   <si>
     <t>二</t>
   </si>
@@ -440,10 +439,6 @@
     <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
-    <t>文本摘要比赛</t>
-    <phoneticPr fontId="24" type="noConversion"/>
-  </si>
-  <si>
     <t>简历制作，约面试</t>
     <phoneticPr fontId="24" type="noConversion"/>
   </si>
@@ -472,6 +467,18 @@
     <t>提离职</t>
     <phoneticPr fontId="24" type="noConversion"/>
   </si>
+  <si>
+    <t>文本摘要</t>
+    <phoneticPr fontId="24" type="noConversion"/>
+  </si>
+  <si>
+    <t>pyspark</t>
+    <phoneticPr fontId="24" type="noConversion"/>
+  </si>
+  <si>
+    <t>leetcode 每天中午</t>
+    <phoneticPr fontId="24" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -488,7 +495,7 @@
     <numFmt numFmtId="183" formatCode="&quot;二&quot;"/>
     <numFmt numFmtId="184" formatCode="[$-804]aaaa;@"/>
   </numFmts>
-  <fonts count="31">
+  <fonts count="32">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -686,6 +693,13 @@
       <color rgb="FFFF0000"/>
       <name val="Microsoft YaHei UI"/>
       <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="22"/>
+      <color rgb="FFFF0000"/>
+      <name val="汉仪君黑-45简"/>
       <charset val="134"/>
     </font>
   </fonts>
@@ -906,7 +920,7 @@
     </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="169">
+  <cellXfs count="170">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1252,6 +1266,9 @@
     <xf numFmtId="0" fontId="30" fillId="4" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="26" fillId="7" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="25" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1411,7 +1428,7 @@
     <xf numFmtId="176" fontId="1" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="7" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="31" fillId="3" borderId="2" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -5580,208 +5597,6 @@
             </a:rPr>
             <a:t>cuda</a:t>
           </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>133349</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>285750</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>1257300</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>676275</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="11" name="圆角矩形 3">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DDE1C11B-AF76-470C-B45F-D894334D6FFD}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3809999" y="2428875"/>
-          <a:ext cx="6838951" cy="390525"/>
-        </a:xfrm>
-        <a:prstGeom prst="roundRect">
-          <a:avLst>
-            <a:gd name="adj" fmla="val 50000"/>
-          </a:avLst>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="accent4">
-            <a:lumMod val="20000"/>
-            <a:lumOff val="80000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst>
-          <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
-            <a:schemeClr val="tx1">
-              <a:lumMod val="50000"/>
-              <a:lumOff val="50000"/>
-              <a:alpha val="30000"/>
-            </a:schemeClr>
-          </a:outerShdw>
-        </a:effectLst>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="ctr" anchorCtr="0" forceAA="0" compatLnSpc="1">
-          <a:noAutofit/>
-        </a:bodyPr>
-        <a:lstStyle>
-          <a:defPPr>
-            <a:defRPr lang="zh-CN">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-            </a:defRPr>
-          </a:defPPr>
-          <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl1pPr>
-          <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl2pPr>
-          <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl3pPr>
-          <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl4pPr>
-          <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl5pPr>
-          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl6pPr>
-          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl7pPr>
-          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl8pPr>
-          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl9pPr>
-        </a:lstStyle>
-        <a:p>
-          <a:pPr algn="l">
-            <a:buClrTx/>
-            <a:buSzTx/>
-            <a:buFontTx/>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1600">
-              <a:solidFill>
-                <a:srgbClr val="868974"/>
-              </a:solidFill>
-              <a:latin typeface="汉仪君黑-45简" panose="020B0604020202020204" charset="-122"/>
-              <a:ea typeface="汉仪君黑-45简" panose="020B0604020202020204" charset="-122"/>
-              <a:cs typeface="汉仪君黑-45简" panose="020B0604020202020204" charset="-122"/>
-            </a:rPr>
-            <a:t>Mysql</a:t>
-          </a:r>
-          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1600">
-            <a:solidFill>
-              <a:srgbClr val="868974"/>
-            </a:solidFill>
-            <a:latin typeface="汉仪君黑-45简" panose="020B0604020202020204" charset="-122"/>
-            <a:ea typeface="汉仪君黑-45简" panose="020B0604020202020204" charset="-122"/>
-            <a:cs typeface="汉仪君黑-45简" panose="020B0604020202020204" charset="-122"/>
-          </a:endParaRPr>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -9747,7 +9562,7 @@
   <sheetData>
     <row r="1" spans="2:10" s="50" customFormat="1" ht="13.95" customHeight="1"/>
     <row r="2" spans="2:10" s="50" customFormat="1" ht="24" customHeight="1">
-      <c r="B2" s="115" t="s">
+      <c r="B2" s="116" t="s">
         <v>103</v>
       </c>
       <c r="C2" s="82">
@@ -9774,46 +9589,46 @@
       <c r="J2" s="98"/>
     </row>
     <row r="3" spans="2:10" s="50" customFormat="1" ht="13.05" customHeight="1">
-      <c r="B3" s="116"/>
-      <c r="C3" s="120" t="s">
+      <c r="B3" s="117"/>
+      <c r="C3" s="121" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="120"/>
-      <c r="E3" s="120"/>
-      <c r="F3" s="120"/>
-      <c r="G3" s="120"/>
-      <c r="H3" s="120"/>
+      <c r="D3" s="121"/>
+      <c r="E3" s="121"/>
+      <c r="F3" s="121"/>
+      <c r="G3" s="121"/>
+      <c r="H3" s="121"/>
       <c r="I3" s="12">
         <v>44562</v>
       </c>
       <c r="J3" s="80"/>
     </row>
     <row r="4" spans="2:10" s="50" customFormat="1" ht="13.05" customHeight="1">
-      <c r="B4" s="116"/>
-      <c r="C4" s="120"/>
-      <c r="D4" s="120"/>
-      <c r="E4" s="120"/>
-      <c r="F4" s="120"/>
-      <c r="G4" s="120"/>
-      <c r="H4" s="120"/>
+      <c r="B4" s="117"/>
+      <c r="C4" s="121"/>
+      <c r="D4" s="121"/>
+      <c r="E4" s="121"/>
+      <c r="F4" s="121"/>
+      <c r="G4" s="121"/>
+      <c r="H4" s="121"/>
       <c r="I4" s="90" t="s">
         <v>2</v>
       </c>
       <c r="J4" s="80"/>
     </row>
     <row r="5" spans="2:10" s="50" customFormat="1" ht="66" customHeight="1">
-      <c r="B5" s="117"/>
-      <c r="C5" s="120"/>
-      <c r="D5" s="120"/>
-      <c r="E5" s="120"/>
-      <c r="F5" s="120"/>
-      <c r="G5" s="120"/>
-      <c r="H5" s="120"/>
+      <c r="B5" s="118"/>
+      <c r="C5" s="121"/>
+      <c r="D5" s="121"/>
+      <c r="E5" s="121"/>
+      <c r="F5" s="121"/>
+      <c r="G5" s="121"/>
+      <c r="H5" s="121"/>
       <c r="I5" s="81"/>
       <c r="J5" s="80"/>
     </row>
     <row r="6" spans="2:10" s="50" customFormat="1" ht="15" customHeight="1">
-      <c r="B6" s="118"/>
+      <c r="B6" s="119"/>
       <c r="C6" s="12">
         <v>44563</v>
       </c>
@@ -9838,7 +9653,7 @@
       <c r="J6" s="80"/>
     </row>
     <row r="7" spans="2:10" s="50" customFormat="1" ht="15" customHeight="1">
-      <c r="B7" s="118"/>
+      <c r="B7" s="119"/>
       <c r="C7" s="90" t="s">
         <v>3</v>
       </c>
@@ -9863,7 +9678,7 @@
       <c r="J7" s="80"/>
     </row>
     <row r="8" spans="2:10" s="50" customFormat="1" ht="66" customHeight="1">
-      <c r="B8" s="118"/>
+      <c r="B8" s="119"/>
       <c r="C8" s="93"/>
       <c r="D8" s="91"/>
       <c r="E8" s="91"/>
@@ -9874,7 +9689,7 @@
       <c r="J8" s="80"/>
     </row>
     <row r="9" spans="2:10" s="50" customFormat="1" ht="15" customHeight="1">
-      <c r="B9" s="118"/>
+      <c r="B9" s="119"/>
       <c r="C9" s="12">
         <v>44570</v>
       </c>
@@ -9899,7 +9714,7 @@
       <c r="J9" s="80"/>
     </row>
     <row r="10" spans="2:10" s="50" customFormat="1" ht="15" customHeight="1">
-      <c r="B10" s="118"/>
+      <c r="B10" s="119"/>
       <c r="C10" s="90" t="s">
         <v>10</v>
       </c>
@@ -9924,7 +9739,7 @@
       <c r="J10" s="80"/>
     </row>
     <row r="11" spans="2:10" s="50" customFormat="1" ht="66" customHeight="1">
-      <c r="B11" s="118"/>
+      <c r="B11" s="119"/>
       <c r="C11" s="93"/>
       <c r="D11" s="91"/>
       <c r="E11" s="91"/>
@@ -9935,7 +9750,7 @@
       <c r="J11" s="80"/>
     </row>
     <row r="12" spans="2:10" s="50" customFormat="1" ht="15" customHeight="1">
-      <c r="B12" s="118"/>
+      <c r="B12" s="119"/>
       <c r="C12" s="12">
         <v>44577</v>
       </c>
@@ -9960,7 +9775,7 @@
       <c r="J12" s="80"/>
     </row>
     <row r="13" spans="2:10" s="50" customFormat="1" ht="15" customHeight="1">
-      <c r="B13" s="118"/>
+      <c r="B13" s="119"/>
       <c r="C13" s="90" t="s">
         <v>17</v>
       </c>
@@ -9985,7 +9800,7 @@
       <c r="J13" s="80"/>
     </row>
     <row r="14" spans="2:10" s="50" customFormat="1" ht="66" customHeight="1">
-      <c r="B14" s="118"/>
+      <c r="B14" s="119"/>
       <c r="C14" s="93"/>
       <c r="D14" s="91"/>
       <c r="E14" s="91"/>
@@ -9996,7 +9811,7 @@
       <c r="J14" s="80"/>
     </row>
     <row r="15" spans="2:10" s="50" customFormat="1" ht="15" customHeight="1">
-      <c r="B15" s="118"/>
+      <c r="B15" s="119"/>
       <c r="C15" s="12">
         <v>44584</v>
       </c>
@@ -10021,7 +9836,7 @@
       <c r="J15" s="80"/>
     </row>
     <row r="16" spans="2:10" s="50" customFormat="1" ht="15" customHeight="1">
-      <c r="B16" s="118"/>
+      <c r="B16" s="119"/>
       <c r="C16" s="90" t="s">
         <v>24</v>
       </c>
@@ -10046,7 +9861,7 @@
       <c r="J16" s="80"/>
     </row>
     <row r="17" spans="2:10" s="50" customFormat="1" ht="66" customHeight="1">
-      <c r="B17" s="118"/>
+      <c r="B17" s="119"/>
       <c r="C17" s="93"/>
       <c r="D17" s="91"/>
       <c r="E17" s="91"/>
@@ -10063,50 +9878,50 @@
       <c r="J17" s="80"/>
     </row>
     <row r="18" spans="2:10" s="50" customFormat="1" ht="15" customHeight="1">
-      <c r="B18" s="118"/>
+      <c r="B18" s="119"/>
       <c r="C18" s="12">
         <v>44591</v>
       </c>
       <c r="D18" s="9">
         <v>44592</v>
       </c>
-      <c r="E18" s="121" t="s">
+      <c r="E18" s="122" t="s">
         <v>31</v>
       </c>
-      <c r="F18" s="122"/>
-      <c r="G18" s="122"/>
-      <c r="H18" s="122"/>
-      <c r="I18" s="123"/>
+      <c r="F18" s="123"/>
+      <c r="G18" s="123"/>
+      <c r="H18" s="123"/>
+      <c r="I18" s="124"/>
       <c r="J18" s="80"/>
     </row>
     <row r="19" spans="2:10" s="50" customFormat="1" ht="15" customHeight="1">
-      <c r="B19" s="118"/>
+      <c r="B19" s="119"/>
       <c r="C19" s="90" t="s">
         <v>32</v>
       </c>
       <c r="D19" s="89" t="s">
         <v>33</v>
       </c>
-      <c r="E19" s="124"/>
-      <c r="F19" s="125"/>
-      <c r="G19" s="125"/>
-      <c r="H19" s="125"/>
-      <c r="I19" s="126"/>
+      <c r="E19" s="125"/>
+      <c r="F19" s="126"/>
+      <c r="G19" s="126"/>
+      <c r="H19" s="126"/>
+      <c r="I19" s="127"/>
       <c r="J19" s="80"/>
     </row>
     <row r="20" spans="2:10" s="50" customFormat="1" ht="66" customHeight="1">
-      <c r="B20" s="119"/>
+      <c r="B20" s="120"/>
       <c r="C20" s="101" t="s">
         <v>105</v>
       </c>
       <c r="D20" s="100" t="s">
         <v>106</v>
       </c>
-      <c r="E20" s="127"/>
-      <c r="F20" s="128"/>
-      <c r="G20" s="128"/>
-      <c r="H20" s="128"/>
-      <c r="I20" s="129"/>
+      <c r="E20" s="128"/>
+      <c r="F20" s="129"/>
+      <c r="G20" s="129"/>
+      <c r="H20" s="129"/>
+      <c r="I20" s="130"/>
       <c r="J20" s="80"/>
     </row>
     <row r="21" spans="2:10" s="50" customFormat="1" ht="9" customHeight="1">
@@ -10163,7 +9978,7 @@
   <sheetData>
     <row r="1" spans="2:10" ht="13.95" customHeight="1"/>
     <row r="2" spans="2:10" ht="24" customHeight="1">
-      <c r="B2" s="137" t="s">
+      <c r="B2" s="138" t="s">
         <v>85</v>
       </c>
       <c r="C2" s="4">
@@ -10190,46 +10005,46 @@
       <c r="J2" s="20"/>
     </row>
     <row r="3" spans="2:10" s="2" customFormat="1" ht="13.05" customHeight="1">
-      <c r="B3" s="138"/>
-      <c r="C3" s="140" t="s">
+      <c r="B3" s="139"/>
+      <c r="C3" s="141" t="s">
         <v>35</v>
       </c>
-      <c r="D3" s="141"/>
-      <c r="E3" s="141"/>
-      <c r="F3" s="141"/>
-      <c r="G3" s="141"/>
-      <c r="H3" s="141"/>
+      <c r="D3" s="142"/>
+      <c r="E3" s="142"/>
+      <c r="F3" s="142"/>
+      <c r="G3" s="142"/>
+      <c r="H3" s="142"/>
       <c r="I3" s="26">
         <v>44835</v>
       </c>
       <c r="J3" s="21"/>
     </row>
     <row r="4" spans="2:10" ht="16.05" customHeight="1">
-      <c r="B4" s="138"/>
-      <c r="C4" s="141"/>
-      <c r="D4" s="141"/>
-      <c r="E4" s="141"/>
-      <c r="F4" s="141"/>
-      <c r="G4" s="141"/>
-      <c r="H4" s="141"/>
+      <c r="B4" s="139"/>
+      <c r="C4" s="142"/>
+      <c r="D4" s="142"/>
+      <c r="E4" s="142"/>
+      <c r="F4" s="142"/>
+      <c r="G4" s="142"/>
+      <c r="H4" s="142"/>
       <c r="I4" s="13" t="s">
         <v>86</v>
       </c>
       <c r="J4" s="22"/>
     </row>
     <row r="5" spans="2:10" ht="73.05" customHeight="1">
-      <c r="B5" s="139"/>
-      <c r="C5" s="141"/>
-      <c r="D5" s="141"/>
-      <c r="E5" s="141"/>
-      <c r="F5" s="141"/>
-      <c r="G5" s="141"/>
-      <c r="H5" s="141"/>
+      <c r="B5" s="140"/>
+      <c r="C5" s="142"/>
+      <c r="D5" s="142"/>
+      <c r="E5" s="142"/>
+      <c r="F5" s="142"/>
+      <c r="G5" s="142"/>
+      <c r="H5" s="142"/>
       <c r="I5" s="14"/>
       <c r="J5" s="22"/>
     </row>
     <row r="6" spans="2:10" s="2" customFormat="1" ht="15" customHeight="1">
-      <c r="B6" s="118"/>
+      <c r="B6" s="119"/>
       <c r="C6" s="12">
         <v>44836</v>
       </c>
@@ -10254,7 +10069,7 @@
       <c r="J6" s="21"/>
     </row>
     <row r="7" spans="2:10" ht="15" customHeight="1">
-      <c r="B7" s="118"/>
+      <c r="B7" s="119"/>
       <c r="C7" s="13" t="s">
         <v>10</v>
       </c>
@@ -10279,7 +10094,7 @@
       <c r="J7" s="22"/>
     </row>
     <row r="8" spans="2:10" ht="73.05" customHeight="1">
-      <c r="B8" s="118"/>
+      <c r="B8" s="119"/>
       <c r="C8" s="14"/>
       <c r="D8" s="11"/>
       <c r="E8" s="11"/>
@@ -10290,7 +10105,7 @@
       <c r="J8" s="22"/>
     </row>
     <row r="9" spans="2:10" s="2" customFormat="1" ht="15" customHeight="1">
-      <c r="B9" s="118"/>
+      <c r="B9" s="119"/>
       <c r="C9" s="12">
         <v>44843</v>
       </c>
@@ -10315,7 +10130,7 @@
       <c r="J9" s="21"/>
     </row>
     <row r="10" spans="2:10" ht="15" customHeight="1">
-      <c r="B10" s="118"/>
+      <c r="B10" s="119"/>
       <c r="C10" s="13" t="s">
         <v>17</v>
       </c>
@@ -10340,7 +10155,7 @@
       <c r="J10" s="22"/>
     </row>
     <row r="11" spans="2:10" ht="73.05" customHeight="1">
-      <c r="B11" s="118"/>
+      <c r="B11" s="119"/>
       <c r="C11" s="14"/>
       <c r="D11" s="11"/>
       <c r="E11" s="11"/>
@@ -10351,7 +10166,7 @@
       <c r="J11" s="22"/>
     </row>
     <row r="12" spans="2:10" s="2" customFormat="1" ht="15" customHeight="1">
-      <c r="B12" s="118"/>
+      <c r="B12" s="119"/>
       <c r="C12" s="12">
         <v>44850</v>
       </c>
@@ -10376,7 +10191,7 @@
       <c r="J12" s="21"/>
     </row>
     <row r="13" spans="2:10" ht="15" customHeight="1">
-      <c r="B13" s="118"/>
+      <c r="B13" s="119"/>
       <c r="C13" s="13" t="s">
         <v>24</v>
       </c>
@@ -10401,7 +10216,7 @@
       <c r="J13" s="22"/>
     </row>
     <row r="14" spans="2:10" ht="73.05" customHeight="1">
-      <c r="B14" s="118"/>
+      <c r="B14" s="119"/>
       <c r="C14" s="14"/>
       <c r="D14" s="11"/>
       <c r="E14" s="11"/>
@@ -10412,7 +10227,7 @@
       <c r="J14" s="22"/>
     </row>
     <row r="15" spans="2:10" s="2" customFormat="1" ht="15" customHeight="1">
-      <c r="B15" s="118"/>
+      <c r="B15" s="119"/>
       <c r="C15" s="12">
         <v>44857</v>
       </c>
@@ -10437,7 +10252,7 @@
       <c r="J15" s="21"/>
     </row>
     <row r="16" spans="2:10" ht="15" customHeight="1">
-      <c r="B16" s="118"/>
+      <c r="B16" s="119"/>
       <c r="C16" s="13" t="s">
         <v>89</v>
       </c>
@@ -10462,7 +10277,7 @@
       <c r="J16" s="22"/>
     </row>
     <row r="17" spans="2:10" ht="73.05" customHeight="1">
-      <c r="B17" s="118"/>
+      <c r="B17" s="119"/>
       <c r="C17" s="14"/>
       <c r="D17" s="11"/>
       <c r="E17" s="11"/>
@@ -10473,46 +10288,46 @@
       <c r="J17" s="22"/>
     </row>
     <row r="18" spans="2:10" ht="15" customHeight="1">
-      <c r="B18" s="118"/>
+      <c r="B18" s="119"/>
       <c r="C18" s="12">
         <v>44864</v>
       </c>
       <c r="D18" s="9">
         <v>44865</v>
       </c>
-      <c r="E18" s="159" t="s">
+      <c r="E18" s="160" t="s">
         <v>35</v>
       </c>
-      <c r="F18" s="160"/>
-      <c r="G18" s="160"/>
-      <c r="H18" s="160"/>
-      <c r="I18" s="161"/>
+      <c r="F18" s="161"/>
+      <c r="G18" s="161"/>
+      <c r="H18" s="161"/>
+      <c r="I18" s="162"/>
       <c r="J18" s="22"/>
     </row>
     <row r="19" spans="2:10" ht="15" customHeight="1">
-      <c r="B19" s="118"/>
+      <c r="B19" s="119"/>
       <c r="C19" s="13" t="s">
         <v>9</v>
       </c>
       <c r="D19" s="10" t="s">
         <v>91</v>
       </c>
-      <c r="E19" s="162"/>
-      <c r="F19" s="163"/>
-      <c r="G19" s="163"/>
-      <c r="H19" s="163"/>
-      <c r="I19" s="164"/>
+      <c r="E19" s="163"/>
+      <c r="F19" s="164"/>
+      <c r="G19" s="164"/>
+      <c r="H19" s="164"/>
+      <c r="I19" s="165"/>
       <c r="J19" s="22"/>
     </row>
     <row r="20" spans="2:10" ht="75" customHeight="1">
-      <c r="B20" s="119"/>
+      <c r="B20" s="120"/>
       <c r="C20" s="14"/>
       <c r="D20" s="11"/>
-      <c r="E20" s="165"/>
-      <c r="F20" s="166"/>
-      <c r="G20" s="166"/>
-      <c r="H20" s="166"/>
-      <c r="I20" s="167"/>
+      <c r="E20" s="166"/>
+      <c r="F20" s="167"/>
+      <c r="G20" s="167"/>
+      <c r="H20" s="167"/>
+      <c r="I20" s="168"/>
       <c r="J20" s="22"/>
     </row>
     <row r="21" spans="2:10" s="3" customFormat="1" ht="9" customHeight="1">
@@ -10560,7 +10375,7 @@
   <sheetData>
     <row r="1" spans="2:10" ht="13.95" customHeight="1"/>
     <row r="2" spans="2:10" ht="24" customHeight="1">
-      <c r="B2" s="156" t="s">
+      <c r="B2" s="157" t="s">
         <v>92</v>
       </c>
       <c r="C2" s="4">
@@ -10587,11 +10402,11 @@
       <c r="J2" s="20"/>
     </row>
     <row r="3" spans="2:10" s="2" customFormat="1" ht="13.05" customHeight="1">
-      <c r="B3" s="138"/>
-      <c r="C3" s="140" t="s">
+      <c r="B3" s="139"/>
+      <c r="C3" s="141" t="s">
         <v>35</v>
       </c>
-      <c r="D3" s="141"/>
+      <c r="D3" s="142"/>
       <c r="E3" s="9">
         <v>1</v>
       </c>
@@ -10610,9 +10425,9 @@
       <c r="J3" s="21"/>
     </row>
     <row r="4" spans="2:10" ht="16.05" customHeight="1">
-      <c r="B4" s="138"/>
-      <c r="C4" s="141"/>
-      <c r="D4" s="141"/>
+      <c r="B4" s="139"/>
+      <c r="C4" s="142"/>
+      <c r="D4" s="142"/>
       <c r="E4" s="10" t="s">
         <v>11</v>
       </c>
@@ -10631,9 +10446,9 @@
       <c r="J4" s="22"/>
     </row>
     <row r="5" spans="2:10" ht="73.05" customHeight="1">
-      <c r="B5" s="139"/>
-      <c r="C5" s="141"/>
-      <c r="D5" s="141"/>
+      <c r="B5" s="140"/>
+      <c r="C5" s="142"/>
+      <c r="D5" s="142"/>
       <c r="E5" s="23"/>
       <c r="F5" s="11"/>
       <c r="G5" s="11"/>
@@ -10642,7 +10457,7 @@
       <c r="J5" s="22"/>
     </row>
     <row r="6" spans="2:10" s="2" customFormat="1" ht="15" customHeight="1">
-      <c r="B6" s="118"/>
+      <c r="B6" s="119"/>
       <c r="C6" s="12">
         <v>44871</v>
       </c>
@@ -10667,7 +10482,7 @@
       <c r="J6" s="21"/>
     </row>
     <row r="7" spans="2:10" ht="15" customHeight="1">
-      <c r="B7" s="118"/>
+      <c r="B7" s="119"/>
       <c r="C7" s="13" t="s">
         <v>16</v>
       </c>
@@ -10692,7 +10507,7 @@
       <c r="J7" s="22"/>
     </row>
     <row r="8" spans="2:10" ht="73.05" customHeight="1">
-      <c r="B8" s="118"/>
+      <c r="B8" s="119"/>
       <c r="C8" s="14"/>
       <c r="D8" s="11"/>
       <c r="E8" s="11"/>
@@ -10703,7 +10518,7 @@
       <c r="J8" s="22"/>
     </row>
     <row r="9" spans="2:10" s="2" customFormat="1" ht="15" customHeight="1">
-      <c r="B9" s="118"/>
+      <c r="B9" s="119"/>
       <c r="C9" s="12">
         <v>44878</v>
       </c>
@@ -10728,7 +10543,7 @@
       <c r="J9" s="21"/>
     </row>
     <row r="10" spans="2:10" ht="15" customHeight="1">
-      <c r="B10" s="118"/>
+      <c r="B10" s="119"/>
       <c r="C10" s="13" t="s">
         <v>23</v>
       </c>
@@ -10753,7 +10568,7 @@
       <c r="J10" s="22"/>
     </row>
     <row r="11" spans="2:10" ht="73.05" customHeight="1">
-      <c r="B11" s="118"/>
+      <c r="B11" s="119"/>
       <c r="C11" s="14"/>
       <c r="D11" s="11"/>
       <c r="E11" s="11"/>
@@ -10764,7 +10579,7 @@
       <c r="J11" s="22"/>
     </row>
     <row r="12" spans="2:10" s="2" customFormat="1" ht="15" customHeight="1">
-      <c r="B12" s="118"/>
+      <c r="B12" s="119"/>
       <c r="C12" s="12">
         <v>44885</v>
       </c>
@@ -10789,7 +10604,7 @@
       <c r="J12" s="21"/>
     </row>
     <row r="13" spans="2:10" ht="15" customHeight="1">
-      <c r="B13" s="118"/>
+      <c r="B13" s="119"/>
       <c r="C13" s="13" t="s">
         <v>30</v>
       </c>
@@ -10814,7 +10629,7 @@
       <c r="J13" s="22"/>
     </row>
     <row r="14" spans="2:10" ht="73.05" customHeight="1">
-      <c r="B14" s="118"/>
+      <c r="B14" s="119"/>
       <c r="C14" s="14"/>
       <c r="D14" s="11"/>
       <c r="E14" s="11"/>
@@ -10825,7 +10640,7 @@
       <c r="J14" s="22"/>
     </row>
     <row r="15" spans="2:10" s="2" customFormat="1" ht="15" customHeight="1">
-      <c r="B15" s="118"/>
+      <c r="B15" s="119"/>
       <c r="C15" s="12">
         <v>44892</v>
       </c>
@@ -10838,15 +10653,15 @@
       <c r="F15" s="9">
         <v>44895</v>
       </c>
-      <c r="G15" s="141" t="s">
+      <c r="G15" s="142" t="s">
         <v>35</v>
       </c>
-      <c r="H15" s="141"/>
-      <c r="I15" s="141"/>
+      <c r="H15" s="142"/>
+      <c r="I15" s="142"/>
       <c r="J15" s="21"/>
     </row>
     <row r="16" spans="2:10" ht="15" customHeight="1">
-      <c r="B16" s="118"/>
+      <c r="B16" s="119"/>
       <c r="C16" s="13" t="s">
         <v>7</v>
       </c>
@@ -10859,20 +10674,20 @@
       <c r="F16" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="G16" s="141"/>
-      <c r="H16" s="141"/>
-      <c r="I16" s="141"/>
+      <c r="G16" s="142"/>
+      <c r="H16" s="142"/>
+      <c r="I16" s="142"/>
       <c r="J16" s="22"/>
     </row>
     <row r="17" spans="2:10" ht="73.05" customHeight="1">
-      <c r="B17" s="119"/>
+      <c r="B17" s="120"/>
       <c r="C17" s="14"/>
       <c r="D17" s="11"/>
       <c r="E17" s="11"/>
       <c r="F17" s="11"/>
-      <c r="G17" s="141"/>
-      <c r="H17" s="141"/>
-      <c r="I17" s="141"/>
+      <c r="G17" s="142"/>
+      <c r="H17" s="142"/>
+      <c r="I17" s="142"/>
       <c r="J17" s="22"/>
     </row>
     <row r="18" spans="2:10" s="3" customFormat="1" ht="9" customHeight="1">
@@ -10940,7 +10755,7 @@
   <sheetData>
     <row r="1" spans="2:10" ht="13.95" customHeight="1"/>
     <row r="2" spans="2:10" ht="24" customHeight="1">
-      <c r="B2" s="156" t="s">
+      <c r="B2" s="157" t="s">
         <v>97</v>
       </c>
       <c r="C2" s="4">
@@ -10967,13 +10782,13 @@
       <c r="J2" s="20"/>
     </row>
     <row r="3" spans="2:10" s="2" customFormat="1" ht="13.05" customHeight="1">
-      <c r="B3" s="138"/>
-      <c r="C3" s="140" t="s">
+      <c r="B3" s="139"/>
+      <c r="C3" s="141" t="s">
         <v>35</v>
       </c>
-      <c r="D3" s="141"/>
-      <c r="E3" s="141"/>
-      <c r="F3" s="141"/>
+      <c r="D3" s="142"/>
+      <c r="E3" s="142"/>
+      <c r="F3" s="142"/>
       <c r="G3" s="9">
         <v>44896</v>
       </c>
@@ -10986,11 +10801,11 @@
       <c r="J3" s="21"/>
     </row>
     <row r="4" spans="2:10" ht="16.05" customHeight="1">
-      <c r="B4" s="138"/>
-      <c r="C4" s="141"/>
-      <c r="D4" s="141"/>
-      <c r="E4" s="141"/>
-      <c r="F4" s="141"/>
+      <c r="B4" s="139"/>
+      <c r="C4" s="142"/>
+      <c r="D4" s="142"/>
+      <c r="E4" s="142"/>
+      <c r="F4" s="142"/>
       <c r="G4" s="10" t="s">
         <v>11</v>
       </c>
@@ -11003,18 +10818,18 @@
       <c r="J4" s="22"/>
     </row>
     <row r="5" spans="2:10" ht="73.05" customHeight="1">
-      <c r="B5" s="139"/>
-      <c r="C5" s="141"/>
-      <c r="D5" s="141"/>
-      <c r="E5" s="141"/>
-      <c r="F5" s="141"/>
+      <c r="B5" s="140"/>
+      <c r="C5" s="142"/>
+      <c r="D5" s="142"/>
+      <c r="E5" s="142"/>
+      <c r="F5" s="142"/>
       <c r="G5" s="11"/>
       <c r="H5" s="11"/>
       <c r="I5" s="14"/>
       <c r="J5" s="22"/>
     </row>
     <row r="6" spans="2:10" s="2" customFormat="1" ht="15" customHeight="1">
-      <c r="B6" s="118"/>
+      <c r="B6" s="119"/>
       <c r="C6" s="12">
         <v>44899</v>
       </c>
@@ -11039,7 +10854,7 @@
       <c r="J6" s="21"/>
     </row>
     <row r="7" spans="2:10" ht="15" customHeight="1">
-      <c r="B7" s="118"/>
+      <c r="B7" s="119"/>
       <c r="C7" s="13" t="s">
         <v>14</v>
       </c>
@@ -11064,7 +10879,7 @@
       <c r="J7" s="22"/>
     </row>
     <row r="8" spans="2:10" ht="73.05" customHeight="1">
-      <c r="B8" s="118"/>
+      <c r="B8" s="119"/>
       <c r="C8" s="14"/>
       <c r="D8" s="11"/>
       <c r="E8" s="11"/>
@@ -11075,7 +10890,7 @@
       <c r="J8" s="22"/>
     </row>
     <row r="9" spans="2:10" s="2" customFormat="1" ht="15" customHeight="1">
-      <c r="B9" s="118"/>
+      <c r="B9" s="119"/>
       <c r="C9" s="12">
         <v>44906</v>
       </c>
@@ -11100,7 +10915,7 @@
       <c r="J9" s="21"/>
     </row>
     <row r="10" spans="2:10" ht="15" customHeight="1">
-      <c r="B10" s="118"/>
+      <c r="B10" s="119"/>
       <c r="C10" s="13" t="s">
         <v>41</v>
       </c>
@@ -11125,7 +10940,7 @@
       <c r="J10" s="22"/>
     </row>
     <row r="11" spans="2:10" ht="73.05" customHeight="1">
-      <c r="B11" s="118"/>
+      <c r="B11" s="119"/>
       <c r="C11" s="14"/>
       <c r="D11" s="11"/>
       <c r="E11" s="11"/>
@@ -11136,7 +10951,7 @@
       <c r="J11" s="22"/>
     </row>
     <row r="12" spans="2:10" s="2" customFormat="1" ht="15" customHeight="1">
-      <c r="B12" s="118"/>
+      <c r="B12" s="119"/>
       <c r="C12" s="12">
         <v>44913</v>
       </c>
@@ -11161,7 +10976,7 @@
       <c r="J12" s="21"/>
     </row>
     <row r="13" spans="2:10" ht="15" customHeight="1">
-      <c r="B13" s="118"/>
+      <c r="B13" s="119"/>
       <c r="C13" s="13" t="s">
         <v>28</v>
       </c>
@@ -11186,7 +11001,7 @@
       <c r="J13" s="22"/>
     </row>
     <row r="14" spans="2:10" ht="73.05" customHeight="1">
-      <c r="B14" s="118"/>
+      <c r="B14" s="119"/>
       <c r="C14" s="14"/>
       <c r="D14" s="11"/>
       <c r="E14" s="11"/>
@@ -11197,7 +11012,7 @@
       <c r="J14" s="22"/>
     </row>
     <row r="15" spans="2:10" s="2" customFormat="1" ht="15" customHeight="1">
-      <c r="B15" s="118"/>
+      <c r="B15" s="119"/>
       <c r="C15" s="12">
         <v>44920</v>
       </c>
@@ -11222,7 +11037,7 @@
       <c r="J15" s="21"/>
     </row>
     <row r="16" spans="2:10" ht="15" customHeight="1">
-      <c r="B16" s="118"/>
+      <c r="B16" s="119"/>
       <c r="C16" s="13" t="s">
         <v>101</v>
       </c>
@@ -11247,7 +11062,7 @@
       <c r="J16" s="22"/>
     </row>
     <row r="17" spans="2:10" ht="73.05" customHeight="1">
-      <c r="B17" s="119"/>
+      <c r="B17" s="120"/>
       <c r="C17" s="14"/>
       <c r="D17" s="11"/>
       <c r="E17" s="11"/>
@@ -11308,7 +11123,7 @@
   <dimension ref="B1:XDX20"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="23.88671875" defaultRowHeight="18.600000000000001" thickTop="1" thickBottom="1"/>
@@ -11330,12 +11145,12 @@
       <c r="G1" s="52"/>
       <c r="H1" s="52"/>
       <c r="I1" s="52"/>
-      <c r="K1" s="134" t="s">
-        <v>112</v>
+      <c r="K1" s="135" t="s">
+        <v>111</v>
       </c>
     </row>
     <row r="2" spans="2:15" s="3" customFormat="1" ht="24" customHeight="1" thickTop="1" thickBot="1">
-      <c r="B2" s="115" t="s">
+      <c r="B2" s="116" t="s">
         <v>34</v>
       </c>
       <c r="C2" s="107">
@@ -11360,18 +11175,18 @@
         <v>7</v>
       </c>
       <c r="J2" s="61"/>
-      <c r="K2" s="135"/>
+      <c r="K2" s="136"/>
       <c r="L2" s="62"/>
       <c r="M2" s="62"/>
       <c r="N2" s="62"/>
       <c r="O2" s="62"/>
     </row>
     <row r="3" spans="2:15" s="50" customFormat="1" ht="13.05" customHeight="1" thickTop="1" thickBot="1">
-      <c r="B3" s="116"/>
-      <c r="C3" s="132" t="s">
-        <v>35</v>
-      </c>
-      <c r="D3" s="133"/>
+      <c r="B3" s="117"/>
+      <c r="C3" s="169" t="s">
+        <v>116</v>
+      </c>
+      <c r="D3" s="134"/>
       <c r="E3" s="108">
         <v>44593</v>
       </c>
@@ -11388,16 +11203,16 @@
         <v>44597</v>
       </c>
       <c r="J3" s="63"/>
-      <c r="K3" s="135"/>
+      <c r="K3" s="136"/>
       <c r="L3" s="64"/>
       <c r="M3" s="64"/>
       <c r="N3" s="64"/>
       <c r="O3" s="64"/>
     </row>
     <row r="4" spans="2:15" s="3" customFormat="1" ht="16.05" customHeight="1" thickTop="1" thickBot="1">
-      <c r="B4" s="116"/>
-      <c r="C4" s="133"/>
-      <c r="D4" s="133"/>
+      <c r="B4" s="117"/>
+      <c r="C4" s="134"/>
+      <c r="D4" s="134"/>
       <c r="E4" s="111" t="s">
         <v>36</v>
       </c>
@@ -11414,38 +11229,30 @@
         <v>8</v>
       </c>
       <c r="J4" s="65"/>
-      <c r="K4" s="135"/>
+      <c r="K4" s="136"/>
       <c r="L4" s="66"/>
       <c r="M4" s="66"/>
       <c r="N4" s="66"/>
       <c r="O4" s="66"/>
     </row>
     <row r="5" spans="2:15" s="3" customFormat="1" ht="73.05" customHeight="1" thickTop="1" thickBot="1">
-      <c r="B5" s="117"/>
-      <c r="C5" s="133"/>
-      <c r="D5" s="133"/>
-      <c r="E5" s="168"/>
-      <c r="F5" s="92" t="s">
-        <v>107</v>
-      </c>
-      <c r="G5" s="92" t="s">
-        <v>107</v>
-      </c>
-      <c r="H5" s="92" t="s">
-        <v>107</v>
-      </c>
-      <c r="I5" s="92" t="s">
-        <v>107</v>
-      </c>
+      <c r="B5" s="118"/>
+      <c r="C5" s="134"/>
+      <c r="D5" s="134"/>
+      <c r="E5" s="115"/>
+      <c r="F5" s="115"/>
+      <c r="G5" s="115"/>
+      <c r="H5" s="115"/>
+      <c r="I5" s="115"/>
       <c r="J5" s="67"/>
-      <c r="K5" s="135"/>
+      <c r="K5" s="136"/>
       <c r="L5" s="68"/>
       <c r="M5" s="68"/>
       <c r="N5" s="68"/>
       <c r="O5" s="68"/>
     </row>
     <row r="6" spans="2:15" s="50" customFormat="1" ht="15" customHeight="1" thickTop="1" thickBot="1">
-      <c r="B6" s="130"/>
+      <c r="B6" s="131"/>
       <c r="C6" s="109">
         <v>44598</v>
       </c>
@@ -11468,14 +11275,14 @@
         <v>44604</v>
       </c>
       <c r="J6" s="63"/>
-      <c r="K6" s="135"/>
+      <c r="K6" s="136"/>
       <c r="L6" s="64"/>
       <c r="M6" s="64"/>
       <c r="N6" s="64"/>
       <c r="O6" s="64"/>
     </row>
     <row r="7" spans="2:15" s="3" customFormat="1" ht="15" customHeight="1" thickTop="1" thickBot="1">
-      <c r="B7" s="130"/>
+      <c r="B7" s="131"/>
       <c r="C7" s="112" t="s">
         <v>9</v>
       </c>
@@ -11498,32 +11305,42 @@
         <v>15</v>
       </c>
       <c r="J7" s="69"/>
-      <c r="K7" s="135"/>
+      <c r="K7" s="136"/>
       <c r="L7" s="70"/>
       <c r="M7" s="70"/>
       <c r="N7" s="70"/>
       <c r="O7" s="70"/>
     </row>
     <row r="8" spans="2:15" s="3" customFormat="1" ht="73.05" customHeight="1" thickTop="1" thickBot="1">
-      <c r="B8" s="130"/>
-      <c r="C8" s="92" t="s">
-        <v>107</v>
-      </c>
-      <c r="D8" s="91"/>
-      <c r="E8" s="91"/>
-      <c r="F8" s="92"/>
-      <c r="G8" s="91"/>
-      <c r="H8" s="91"/>
-      <c r="I8" s="93"/>
+      <c r="B8" s="131"/>
+      <c r="C8" s="115"/>
+      <c r="D8" s="92" t="s">
+        <v>114</v>
+      </c>
+      <c r="E8" s="92" t="s">
+        <v>114</v>
+      </c>
+      <c r="F8" s="92" t="s">
+        <v>114</v>
+      </c>
+      <c r="G8" s="92" t="s">
+        <v>114</v>
+      </c>
+      <c r="H8" s="92" t="s">
+        <v>114</v>
+      </c>
+      <c r="I8" s="93" t="s">
+        <v>115</v>
+      </c>
       <c r="J8" s="71"/>
-      <c r="K8" s="135"/>
+      <c r="K8" s="136"/>
       <c r="L8" s="72"/>
       <c r="M8" s="72"/>
       <c r="N8" s="72"/>
       <c r="O8" s="72"/>
     </row>
     <row r="9" spans="2:15" s="50" customFormat="1" ht="15" customHeight="1" thickTop="1" thickBot="1">
-      <c r="B9" s="130"/>
+      <c r="B9" s="131"/>
       <c r="C9" s="109">
         <v>44605</v>
       </c>
@@ -11546,14 +11363,14 @@
         <v>44611</v>
       </c>
       <c r="J9" s="63"/>
-      <c r="K9" s="135"/>
+      <c r="K9" s="136"/>
       <c r="L9" s="64"/>
       <c r="M9" s="64"/>
       <c r="N9" s="64"/>
       <c r="O9" s="64"/>
     </row>
     <row r="10" spans="2:15" s="3" customFormat="1" ht="15" customHeight="1" thickTop="1" thickBot="1">
-      <c r="B10" s="130"/>
+      <c r="B10" s="131"/>
       <c r="C10" s="112" t="s">
         <v>16</v>
       </c>
@@ -11576,32 +11393,38 @@
         <v>42</v>
       </c>
       <c r="J10" s="69"/>
-      <c r="K10" s="135"/>
+      <c r="K10" s="136"/>
       <c r="L10" s="70"/>
       <c r="M10" s="70"/>
       <c r="N10" s="70"/>
       <c r="O10" s="70"/>
     </row>
     <row r="11" spans="2:15" s="3" customFormat="1" ht="73.05" customHeight="1" thickTop="1" thickBot="1">
-      <c r="B11" s="130"/>
-      <c r="C11" s="93"/>
-      <c r="D11" s="91"/>
-      <c r="E11" s="91"/>
+      <c r="B11" s="131"/>
+      <c r="C11" s="93" t="s">
+        <v>115</v>
+      </c>
+      <c r="D11" s="93" t="s">
+        <v>115</v>
+      </c>
+      <c r="E11" s="93" t="s">
+        <v>115</v>
+      </c>
       <c r="F11" s="114" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="G11" s="91"/>
       <c r="H11" s="91"/>
       <c r="I11" s="93"/>
       <c r="J11" s="71"/>
-      <c r="K11" s="135"/>
+      <c r="K11" s="136"/>
       <c r="L11" s="72"/>
       <c r="M11" s="72"/>
       <c r="N11" s="72"/>
       <c r="O11" s="72"/>
     </row>
     <row r="12" spans="2:15" s="50" customFormat="1" ht="15" customHeight="1" thickTop="1" thickBot="1">
-      <c r="B12" s="130"/>
+      <c r="B12" s="131"/>
       <c r="C12" s="109">
         <v>44612</v>
       </c>
@@ -11624,14 +11447,14 @@
         <v>44618</v>
       </c>
       <c r="J12" s="63"/>
-      <c r="K12" s="135"/>
+      <c r="K12" s="136"/>
       <c r="L12" s="64"/>
       <c r="M12" s="64"/>
       <c r="N12" s="64"/>
       <c r="O12" s="64"/>
     </row>
     <row r="13" spans="2:15" s="3" customFormat="1" ht="15" customHeight="1" thickTop="1" thickBot="1">
-      <c r="B13" s="130"/>
+      <c r="B13" s="131"/>
       <c r="C13" s="112" t="s">
         <v>23</v>
       </c>
@@ -11654,14 +11477,14 @@
         <v>29</v>
       </c>
       <c r="J13" s="69"/>
-      <c r="K13" s="135"/>
+      <c r="K13" s="136"/>
       <c r="L13" s="70"/>
       <c r="M13" s="70"/>
       <c r="N13" s="70"/>
       <c r="O13" s="70"/>
     </row>
     <row r="14" spans="2:15" s="3" customFormat="1" ht="73.05" customHeight="1" thickTop="1" thickBot="1">
-      <c r="B14" s="130"/>
+      <c r="B14" s="131"/>
       <c r="C14" s="93"/>
       <c r="D14" s="91"/>
       <c r="E14" s="91"/>
@@ -11670,65 +11493,65 @@
       <c r="H14" s="91"/>
       <c r="I14" s="93"/>
       <c r="J14" s="71"/>
-      <c r="K14" s="135"/>
+      <c r="K14" s="136"/>
       <c r="L14" s="72"/>
       <c r="M14" s="72"/>
       <c r="N14" s="72"/>
       <c r="O14" s="72"/>
     </row>
     <row r="15" spans="2:15" s="50" customFormat="1" ht="15" customHeight="1" thickTop="1" thickBot="1">
-      <c r="B15" s="130"/>
+      <c r="B15" s="131"/>
       <c r="C15" s="109">
         <v>44619</v>
       </c>
       <c r="D15" s="108">
         <v>44620</v>
       </c>
-      <c r="E15" s="133" t="s">
+      <c r="E15" s="134" t="s">
         <v>35</v>
       </c>
-      <c r="F15" s="133"/>
-      <c r="G15" s="133"/>
-      <c r="H15" s="133"/>
-      <c r="I15" s="133"/>
+      <c r="F15" s="134"/>
+      <c r="G15" s="134"/>
+      <c r="H15" s="134"/>
+      <c r="I15" s="134"/>
       <c r="J15" s="63"/>
-      <c r="K15" s="135"/>
+      <c r="K15" s="136"/>
       <c r="L15" s="64"/>
       <c r="M15" s="64"/>
       <c r="N15" s="64"/>
       <c r="O15" s="64"/>
     </row>
     <row r="16" spans="2:15" s="3" customFormat="1" ht="15" customHeight="1" thickTop="1" thickBot="1">
-      <c r="B16" s="130"/>
+      <c r="B16" s="131"/>
       <c r="C16" s="112" t="s">
         <v>30</v>
       </c>
       <c r="D16" s="111" t="s">
         <v>32</v>
       </c>
-      <c r="E16" s="133"/>
-      <c r="F16" s="133"/>
-      <c r="G16" s="133"/>
-      <c r="H16" s="133"/>
-      <c r="I16" s="133"/>
+      <c r="E16" s="134"/>
+      <c r="F16" s="134"/>
+      <c r="G16" s="134"/>
+      <c r="H16" s="134"/>
+      <c r="I16" s="134"/>
       <c r="J16" s="69"/>
-      <c r="K16" s="135"/>
+      <c r="K16" s="136"/>
       <c r="L16" s="70"/>
       <c r="M16" s="70"/>
       <c r="N16" s="70"/>
       <c r="O16" s="70"/>
     </row>
     <row r="17" spans="2:15" s="3" customFormat="1" ht="73.05" customHeight="1" thickTop="1" thickBot="1">
-      <c r="B17" s="131"/>
+      <c r="B17" s="132"/>
       <c r="C17" s="93"/>
       <c r="D17" s="91"/>
-      <c r="E17" s="133"/>
-      <c r="F17" s="133"/>
-      <c r="G17" s="133"/>
-      <c r="H17" s="133"/>
-      <c r="I17" s="133"/>
+      <c r="E17" s="134"/>
+      <c r="F17" s="134"/>
+      <c r="G17" s="134"/>
+      <c r="H17" s="134"/>
+      <c r="I17" s="134"/>
       <c r="J17" s="71"/>
-      <c r="K17" s="135"/>
+      <c r="K17" s="136"/>
       <c r="L17" s="72"/>
       <c r="M17" s="72"/>
       <c r="N17" s="72"/>
@@ -11744,7 +11567,7 @@
       <c r="H18" s="16"/>
       <c r="I18" s="16"/>
       <c r="J18" s="24"/>
-      <c r="K18" s="136"/>
+      <c r="K18" s="137"/>
     </row>
     <row r="20" spans="2:15" ht="17.399999999999999"/>
   </sheetData>
@@ -11792,12 +11615,12 @@
       <c r="G1" s="52"/>
       <c r="H1" s="52"/>
       <c r="I1" s="52"/>
-      <c r="K1" s="134" t="s">
-        <v>112</v>
+      <c r="K1" s="135" t="s">
+        <v>111</v>
       </c>
     </row>
     <row r="2" spans="2:16" s="3" customFormat="1" ht="24" customHeight="1" thickTop="1" thickBot="1">
-      <c r="B2" s="115" t="s">
+      <c r="B2" s="116" t="s">
         <v>43</v>
       </c>
       <c r="C2" s="107">
@@ -11822,7 +11645,7 @@
         <v>7</v>
       </c>
       <c r="J2" s="75"/>
-      <c r="K2" s="135"/>
+      <c r="K2" s="136"/>
       <c r="L2" s="62"/>
       <c r="M2" s="62"/>
       <c r="N2" s="62"/>
@@ -11830,11 +11653,11 @@
       <c r="P2" s="62"/>
     </row>
     <row r="3" spans="2:16" s="50" customFormat="1" ht="13.05" customHeight="1" thickTop="1" thickBot="1">
-      <c r="B3" s="116"/>
-      <c r="C3" s="132" t="s">
+      <c r="B3" s="117"/>
+      <c r="C3" s="133" t="s">
         <v>35</v>
       </c>
-      <c r="D3" s="133"/>
+      <c r="D3" s="134"/>
       <c r="E3" s="108">
         <v>1</v>
       </c>
@@ -11851,7 +11674,7 @@
         <v>44625</v>
       </c>
       <c r="J3" s="63"/>
-      <c r="K3" s="135"/>
+      <c r="K3" s="136"/>
       <c r="L3" s="64"/>
       <c r="M3" s="64"/>
       <c r="N3" s="64"/>
@@ -11859,9 +11682,9 @@
       <c r="P3" s="64"/>
     </row>
     <row r="4" spans="2:16" s="3" customFormat="1" ht="16.05" customHeight="1" thickTop="1" thickBot="1">
-      <c r="B4" s="116"/>
-      <c r="C4" s="133"/>
-      <c r="D4" s="133"/>
+      <c r="B4" s="117"/>
+      <c r="C4" s="134"/>
+      <c r="D4" s="134"/>
       <c r="E4" s="110" t="s">
         <v>44</v>
       </c>
@@ -11878,7 +11701,7 @@
         <v>47</v>
       </c>
       <c r="J4" s="69"/>
-      <c r="K4" s="135"/>
+      <c r="K4" s="136"/>
       <c r="L4" s="66"/>
       <c r="M4" s="66"/>
       <c r="N4" s="66"/>
@@ -11886,16 +11709,16 @@
       <c r="P4" s="66"/>
     </row>
     <row r="5" spans="2:16" s="3" customFormat="1" ht="73.05" customHeight="1" thickTop="1" thickBot="1">
-      <c r="B5" s="117"/>
-      <c r="C5" s="133"/>
-      <c r="D5" s="133"/>
+      <c r="B5" s="118"/>
+      <c r="C5" s="134"/>
+      <c r="D5" s="134"/>
       <c r="E5" s="113"/>
       <c r="F5" s="91"/>
       <c r="G5" s="91"/>
       <c r="H5" s="91"/>
       <c r="I5" s="93"/>
       <c r="J5" s="71"/>
-      <c r="K5" s="135"/>
+      <c r="K5" s="136"/>
       <c r="L5" s="68"/>
       <c r="M5" s="68"/>
       <c r="N5" s="68"/>
@@ -11903,7 +11726,7 @@
       <c r="P5" s="68"/>
     </row>
     <row r="6" spans="2:16" s="50" customFormat="1" ht="15" customHeight="1" thickTop="1" thickBot="1">
-      <c r="B6" s="130"/>
+      <c r="B6" s="131"/>
       <c r="C6" s="109">
         <v>44626</v>
       </c>
@@ -11926,7 +11749,7 @@
         <v>44632</v>
       </c>
       <c r="J6" s="63"/>
-      <c r="K6" s="135"/>
+      <c r="K6" s="136"/>
       <c r="L6" s="64"/>
       <c r="M6" s="64"/>
       <c r="N6" s="64"/>
@@ -11934,7 +11757,7 @@
       <c r="P6" s="64"/>
     </row>
     <row r="7" spans="2:16" s="3" customFormat="1" ht="15" customHeight="1" thickTop="1" thickBot="1">
-      <c r="B7" s="130"/>
+      <c r="B7" s="131"/>
       <c r="C7" s="112" t="s">
         <v>7</v>
       </c>
@@ -11957,7 +11780,7 @@
         <v>49</v>
       </c>
       <c r="J7" s="69"/>
-      <c r="K7" s="135"/>
+      <c r="K7" s="136"/>
       <c r="L7" s="70"/>
       <c r="M7" s="70"/>
       <c r="N7" s="70"/>
@@ -11965,20 +11788,20 @@
       <c r="P7" s="70"/>
     </row>
     <row r="8" spans="2:16" s="3" customFormat="1" ht="73.05" customHeight="1" thickTop="1" thickBot="1">
-      <c r="B8" s="130"/>
+      <c r="B8" s="131"/>
       <c r="C8" s="93"/>
       <c r="D8" s="91"/>
       <c r="E8" s="91"/>
       <c r="F8" s="91"/>
       <c r="G8" s="91"/>
       <c r="H8" s="114" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="I8" s="106" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="J8" s="71"/>
-      <c r="K8" s="135"/>
+      <c r="K8" s="136"/>
       <c r="L8" s="72"/>
       <c r="M8" s="72"/>
       <c r="N8" s="72"/>
@@ -11986,7 +11809,7 @@
       <c r="P8" s="72"/>
     </row>
     <row r="9" spans="2:16" s="50" customFormat="1" ht="15" customHeight="1" thickTop="1" thickBot="1">
-      <c r="B9" s="130"/>
+      <c r="B9" s="131"/>
       <c r="C9" s="109">
         <v>44633</v>
       </c>
@@ -12009,7 +11832,7 @@
         <v>44639</v>
       </c>
       <c r="J9" s="76"/>
-      <c r="K9" s="135"/>
+      <c r="K9" s="136"/>
       <c r="L9" s="64"/>
       <c r="M9" s="64"/>
       <c r="N9" s="64"/>
@@ -12017,7 +11840,7 @@
       <c r="P9" s="64"/>
     </row>
     <row r="10" spans="2:16" s="3" customFormat="1" ht="15" customHeight="1" thickTop="1" thickBot="1">
-      <c r="B10" s="130"/>
+      <c r="B10" s="131"/>
       <c r="C10" s="112" t="s">
         <v>14</v>
       </c>
@@ -12040,7 +11863,7 @@
         <v>20</v>
       </c>
       <c r="J10" s="77"/>
-      <c r="K10" s="135"/>
+      <c r="K10" s="136"/>
       <c r="L10" s="70"/>
       <c r="M10" s="70"/>
       <c r="N10" s="70"/>
@@ -12048,30 +11871,30 @@
       <c r="P10" s="70"/>
     </row>
     <row r="11" spans="2:16" s="3" customFormat="1" ht="73.05" customHeight="1" thickTop="1" thickBot="1">
-      <c r="B11" s="130"/>
+      <c r="B11" s="131"/>
       <c r="C11" s="106" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D11" s="106" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E11" s="106" t="s">
+        <v>107</v>
+      </c>
+      <c r="F11" s="106" t="s">
+        <v>107</v>
+      </c>
+      <c r="G11" s="92" t="s">
         <v>108</v>
       </c>
-      <c r="F11" s="106" t="s">
+      <c r="H11" s="92" t="s">
         <v>108</v>
       </c>
-      <c r="G11" s="92" t="s">
+      <c r="I11" s="106" t="s">
         <v>109</v>
       </c>
-      <c r="H11" s="92" t="s">
-        <v>109</v>
-      </c>
-      <c r="I11" s="106" t="s">
-        <v>110</v>
-      </c>
       <c r="J11" s="78"/>
-      <c r="K11" s="135"/>
+      <c r="K11" s="136"/>
       <c r="L11" s="72"/>
       <c r="M11" s="72"/>
       <c r="N11" s="72"/>
@@ -12079,7 +11902,7 @@
       <c r="P11" s="72"/>
     </row>
     <row r="12" spans="2:16" s="50" customFormat="1" ht="15" customHeight="1" thickTop="1" thickBot="1">
-      <c r="B12" s="130"/>
+      <c r="B12" s="131"/>
       <c r="C12" s="109">
         <v>44640</v>
       </c>
@@ -12102,7 +11925,7 @@
         <v>44646</v>
       </c>
       <c r="J12" s="63"/>
-      <c r="K12" s="135"/>
+      <c r="K12" s="136"/>
       <c r="L12" s="64"/>
       <c r="M12" s="64"/>
       <c r="N12" s="64"/>
@@ -12110,7 +11933,7 @@
       <c r="P12" s="64"/>
     </row>
     <row r="13" spans="2:16" s="3" customFormat="1" ht="15" customHeight="1" thickTop="1" thickBot="1">
-      <c r="B13" s="130"/>
+      <c r="B13" s="131"/>
       <c r="C13" s="112" t="s">
         <v>50</v>
       </c>
@@ -12133,7 +11956,7 @@
         <v>27</v>
       </c>
       <c r="J13" s="69"/>
-      <c r="K13" s="135"/>
+      <c r="K13" s="136"/>
       <c r="L13" s="70"/>
       <c r="M13" s="70"/>
       <c r="N13" s="70"/>
@@ -12141,9 +11964,9 @@
       <c r="P13" s="70"/>
     </row>
     <row r="14" spans="2:16" s="3" customFormat="1" ht="73.05" customHeight="1" thickTop="1" thickBot="1">
-      <c r="B14" s="130"/>
+      <c r="B14" s="131"/>
       <c r="C14" s="106" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D14" s="91"/>
       <c r="E14" s="91"/>
@@ -12152,7 +11975,7 @@
       <c r="H14" s="91"/>
       <c r="I14" s="93"/>
       <c r="J14" s="71"/>
-      <c r="K14" s="135"/>
+      <c r="K14" s="136"/>
       <c r="L14" s="72"/>
       <c r="M14" s="72"/>
       <c r="N14" s="72"/>
@@ -12160,7 +11983,7 @@
       <c r="P14" s="72"/>
     </row>
     <row r="15" spans="2:16" s="50" customFormat="1" ht="15" customHeight="1" thickTop="1" thickBot="1">
-      <c r="B15" s="130"/>
+      <c r="B15" s="131"/>
       <c r="C15" s="109">
         <v>44647</v>
       </c>
@@ -12176,12 +11999,12 @@
       <c r="G15" s="108">
         <v>44651</v>
       </c>
-      <c r="H15" s="133" t="s">
+      <c r="H15" s="134" t="s">
         <v>35</v>
       </c>
-      <c r="I15" s="133"/>
+      <c r="I15" s="134"/>
       <c r="J15" s="63"/>
-      <c r="K15" s="135"/>
+      <c r="K15" s="136"/>
       <c r="L15" s="64"/>
       <c r="M15" s="64"/>
       <c r="N15" s="64"/>
@@ -12189,7 +12012,7 @@
       <c r="P15" s="64"/>
     </row>
     <row r="16" spans="2:16" s="3" customFormat="1" ht="15" customHeight="1" thickTop="1" thickBot="1">
-      <c r="B16" s="130"/>
+      <c r="B16" s="131"/>
       <c r="C16" s="112" t="s">
         <v>28</v>
       </c>
@@ -12205,10 +12028,10 @@
       <c r="G16" s="111" t="s">
         <v>44</v>
       </c>
-      <c r="H16" s="133"/>
-      <c r="I16" s="133"/>
+      <c r="H16" s="134"/>
+      <c r="I16" s="134"/>
       <c r="J16" s="69"/>
-      <c r="K16" s="135"/>
+      <c r="K16" s="136"/>
       <c r="L16" s="70"/>
       <c r="M16" s="70"/>
       <c r="N16" s="70"/>
@@ -12216,16 +12039,16 @@
       <c r="P16" s="70"/>
     </row>
     <row r="17" spans="2:16" s="3" customFormat="1" ht="73.05" customHeight="1" thickTop="1" thickBot="1">
-      <c r="B17" s="131"/>
+      <c r="B17" s="132"/>
       <c r="C17" s="93"/>
       <c r="D17" s="91"/>
       <c r="E17" s="91"/>
       <c r="F17" s="91"/>
       <c r="G17" s="91"/>
-      <c r="H17" s="133"/>
-      <c r="I17" s="133"/>
+      <c r="H17" s="134"/>
+      <c r="I17" s="134"/>
       <c r="J17" s="79"/>
-      <c r="K17" s="135"/>
+      <c r="K17" s="136"/>
       <c r="L17" s="72"/>
       <c r="M17" s="72"/>
       <c r="N17" s="72"/>
@@ -12242,7 +12065,7 @@
       <c r="H18" s="16"/>
       <c r="I18" s="16"/>
       <c r="J18" s="15"/>
-      <c r="K18" s="136"/>
+      <c r="K18" s="137"/>
     </row>
     <row r="19" spans="2:16" s="3" customFormat="1" thickTop="1" thickBot="1">
       <c r="C19" s="18"/>
@@ -12330,7 +12153,7 @@
       <c r="I1" s="52"/>
     </row>
     <row r="2" spans="2:16" s="3" customFormat="1" ht="24" customHeight="1">
-      <c r="B2" s="137" t="s">
+      <c r="B2" s="138" t="s">
         <v>51</v>
       </c>
       <c r="C2" s="4">
@@ -12363,14 +12186,14 @@
       <c r="P2" s="62"/>
     </row>
     <row r="3" spans="2:16" s="50" customFormat="1" ht="13.05" customHeight="1">
-      <c r="B3" s="138"/>
-      <c r="C3" s="140" t="s">
+      <c r="B3" s="139"/>
+      <c r="C3" s="141" t="s">
         <v>35</v>
       </c>
-      <c r="D3" s="141"/>
-      <c r="E3" s="141"/>
-      <c r="F3" s="141"/>
-      <c r="G3" s="141"/>
+      <c r="D3" s="142"/>
+      <c r="E3" s="142"/>
+      <c r="F3" s="142"/>
+      <c r="G3" s="142"/>
       <c r="H3" s="9">
         <v>44652</v>
       </c>
@@ -12386,12 +12209,12 @@
       <c r="P3" s="64"/>
     </row>
     <row r="4" spans="2:16" s="3" customFormat="1" ht="16.05" customHeight="1">
-      <c r="B4" s="138"/>
-      <c r="C4" s="141"/>
-      <c r="D4" s="141"/>
-      <c r="E4" s="141"/>
-      <c r="F4" s="141"/>
-      <c r="G4" s="141"/>
+      <c r="B4" s="139"/>
+      <c r="C4" s="142"/>
+      <c r="D4" s="142"/>
+      <c r="E4" s="142"/>
+      <c r="F4" s="142"/>
+      <c r="G4" s="142"/>
       <c r="H4" s="10" t="s">
         <v>52</v>
       </c>
@@ -12407,12 +12230,12 @@
       <c r="P4" s="66"/>
     </row>
     <row r="5" spans="2:16" s="3" customFormat="1" ht="73.05" customHeight="1">
-      <c r="B5" s="139"/>
-      <c r="C5" s="141"/>
-      <c r="D5" s="141"/>
-      <c r="E5" s="141"/>
-      <c r="F5" s="141"/>
-      <c r="G5" s="141"/>
+      <c r="B5" s="140"/>
+      <c r="C5" s="142"/>
+      <c r="D5" s="142"/>
+      <c r="E5" s="142"/>
+      <c r="F5" s="142"/>
+      <c r="G5" s="142"/>
       <c r="H5" s="57"/>
       <c r="I5" s="58"/>
       <c r="J5" s="67"/>
@@ -12424,7 +12247,7 @@
       <c r="P5" s="68"/>
     </row>
     <row r="6" spans="2:16" s="50" customFormat="1" ht="15" customHeight="1">
-      <c r="B6" s="118"/>
+      <c r="B6" s="119"/>
       <c r="C6" s="12">
         <v>44654</v>
       </c>
@@ -12455,7 +12278,7 @@
       <c r="P6" s="64"/>
     </row>
     <row r="7" spans="2:16" s="3" customFormat="1" ht="15" customHeight="1">
-      <c r="B7" s="118"/>
+      <c r="B7" s="119"/>
       <c r="C7" s="13" t="s">
         <v>37</v>
       </c>
@@ -12486,7 +12309,7 @@
       <c r="P7" s="70"/>
     </row>
     <row r="8" spans="2:16" s="3" customFormat="1" ht="73.05" customHeight="1">
-      <c r="B8" s="118"/>
+      <c r="B8" s="119"/>
       <c r="C8" s="58"/>
       <c r="D8" s="59"/>
       <c r="E8" s="59"/>
@@ -12503,7 +12326,7 @@
       <c r="P8" s="72"/>
     </row>
     <row r="9" spans="2:16" s="50" customFormat="1" ht="15" customHeight="1">
-      <c r="B9" s="118"/>
+      <c r="B9" s="119"/>
       <c r="C9" s="12">
         <v>44661</v>
       </c>
@@ -12534,7 +12357,7 @@
       <c r="P9" s="64"/>
     </row>
     <row r="10" spans="2:16" s="3" customFormat="1" ht="15" customHeight="1">
-      <c r="B10" s="118"/>
+      <c r="B10" s="119"/>
       <c r="C10" s="13" t="s">
         <v>13</v>
       </c>
@@ -12565,7 +12388,7 @@
       <c r="P10" s="70"/>
     </row>
     <row r="11" spans="2:16" s="3" customFormat="1" ht="73.05" customHeight="1">
-      <c r="B11" s="118"/>
+      <c r="B11" s="119"/>
       <c r="C11" s="58"/>
       <c r="D11" s="59"/>
       <c r="E11" s="59"/>
@@ -12582,7 +12405,7 @@
       <c r="P11" s="72"/>
     </row>
     <row r="12" spans="2:16" s="50" customFormat="1" ht="15" customHeight="1">
-      <c r="B12" s="118"/>
+      <c r="B12" s="119"/>
       <c r="C12" s="12">
         <v>44668</v>
       </c>
@@ -12613,7 +12436,7 @@
       <c r="P12" s="64"/>
     </row>
     <row r="13" spans="2:16" s="3" customFormat="1" ht="15" customHeight="1">
-      <c r="B13" s="118"/>
+      <c r="B13" s="119"/>
       <c r="C13" s="13" t="s">
         <v>20</v>
       </c>
@@ -12644,7 +12467,7 @@
       <c r="P13" s="70"/>
     </row>
     <row r="14" spans="2:16" s="3" customFormat="1" ht="73.05" customHeight="1">
-      <c r="B14" s="118"/>
+      <c r="B14" s="119"/>
       <c r="C14" s="58"/>
       <c r="D14" s="59"/>
       <c r="E14" s="59"/>
@@ -12661,7 +12484,7 @@
       <c r="P14" s="72"/>
     </row>
     <row r="15" spans="2:16" s="50" customFormat="1" ht="15" customHeight="1">
-      <c r="B15" s="118"/>
+      <c r="B15" s="119"/>
       <c r="C15" s="12">
         <v>44675</v>
       </c>
@@ -12692,7 +12515,7 @@
       <c r="P15" s="64"/>
     </row>
     <row r="16" spans="2:16" s="3" customFormat="1" ht="15" customHeight="1">
-      <c r="B16" s="118"/>
+      <c r="B16" s="119"/>
       <c r="C16" s="13" t="s">
         <v>27</v>
       </c>
@@ -12723,7 +12546,7 @@
       <c r="P16" s="70"/>
     </row>
     <row r="17" spans="2:16" s="3" customFormat="1" ht="73.05" customHeight="1">
-      <c r="B17" s="119"/>
+      <c r="B17" s="120"/>
       <c r="C17" s="58"/>
       <c r="D17" s="59"/>
       <c r="E17" s="59"/>
@@ -12821,7 +12644,7 @@
   <sheetData>
     <row r="1" spans="2:10" ht="13.95" customHeight="1"/>
     <row r="2" spans="2:10" ht="24" customHeight="1">
-      <c r="B2" s="137" t="s">
+      <c r="B2" s="138" t="s">
         <v>55</v>
       </c>
       <c r="C2" s="4">
@@ -12848,7 +12671,7 @@
       <c r="J2" s="20"/>
     </row>
     <row r="3" spans="2:10" s="2" customFormat="1" ht="13.05" customHeight="1">
-      <c r="B3" s="138"/>
+      <c r="B3" s="139"/>
       <c r="C3" s="12">
         <v>44682</v>
       </c>
@@ -12873,7 +12696,7 @@
       <c r="J3" s="21"/>
     </row>
     <row r="4" spans="2:10" ht="16.05" customHeight="1">
-      <c r="B4" s="138"/>
+      <c r="B4" s="139"/>
       <c r="C4" s="13" t="s">
         <v>56</v>
       </c>
@@ -12898,7 +12721,7 @@
       <c r="J4" s="22"/>
     </row>
     <row r="5" spans="2:10" ht="73.05" customHeight="1">
-      <c r="B5" s="139"/>
+      <c r="B5" s="140"/>
       <c r="C5" s="14"/>
       <c r="D5" s="11"/>
       <c r="E5" s="11"/>
@@ -12909,7 +12732,7 @@
       <c r="J5" s="22"/>
     </row>
     <row r="6" spans="2:10" s="2" customFormat="1" ht="15" customHeight="1">
-      <c r="B6" s="118"/>
+      <c r="B6" s="119"/>
       <c r="C6" s="12">
         <v>44689</v>
       </c>
@@ -12934,7 +12757,7 @@
       <c r="J6" s="21"/>
     </row>
     <row r="7" spans="2:10" ht="15" customHeight="1">
-      <c r="B7" s="118"/>
+      <c r="B7" s="119"/>
       <c r="C7" s="13" t="s">
         <v>59</v>
       </c>
@@ -12959,7 +12782,7 @@
       <c r="J7" s="22"/>
     </row>
     <row r="8" spans="2:10" ht="73.05" customHeight="1">
-      <c r="B8" s="118"/>
+      <c r="B8" s="119"/>
       <c r="C8" s="14"/>
       <c r="D8" s="11"/>
       <c r="E8" s="11"/>
@@ -12970,7 +12793,7 @@
       <c r="J8" s="22"/>
     </row>
     <row r="9" spans="2:10" s="2" customFormat="1" ht="15" customHeight="1">
-      <c r="B9" s="118"/>
+      <c r="B9" s="119"/>
       <c r="C9" s="12">
         <v>44696</v>
       </c>
@@ -12995,7 +12818,7 @@
       <c r="J9" s="21"/>
     </row>
     <row r="10" spans="2:10" ht="15" customHeight="1">
-      <c r="B10" s="118"/>
+      <c r="B10" s="119"/>
       <c r="C10" s="13" t="s">
         <v>18</v>
       </c>
@@ -13020,7 +12843,7 @@
       <c r="J10" s="22"/>
     </row>
     <row r="11" spans="2:10" ht="73.05" customHeight="1">
-      <c r="B11" s="118"/>
+      <c r="B11" s="119"/>
       <c r="C11" s="14"/>
       <c r="D11" s="11"/>
       <c r="E11" s="11"/>
@@ -13031,7 +12854,7 @@
       <c r="J11" s="22"/>
     </row>
     <row r="12" spans="2:10" s="2" customFormat="1" ht="15" customHeight="1">
-      <c r="B12" s="118"/>
+      <c r="B12" s="119"/>
       <c r="C12" s="12">
         <v>44703</v>
       </c>
@@ -13056,7 +12879,7 @@
       <c r="J12" s="21"/>
     </row>
     <row r="13" spans="2:10" ht="15" customHeight="1">
-      <c r="B13" s="118"/>
+      <c r="B13" s="119"/>
       <c r="C13" s="13" t="s">
         <v>25</v>
       </c>
@@ -13081,7 +12904,7 @@
       <c r="J13" s="22"/>
     </row>
     <row r="14" spans="2:10" ht="73.05" customHeight="1">
-      <c r="B14" s="118"/>
+      <c r="B14" s="119"/>
       <c r="C14" s="14"/>
       <c r="D14" s="11"/>
       <c r="E14" s="11"/>
@@ -13092,7 +12915,7 @@
       <c r="J14" s="22"/>
     </row>
     <row r="15" spans="2:10" s="2" customFormat="1" ht="15" customHeight="1">
-      <c r="B15" s="118"/>
+      <c r="B15" s="119"/>
       <c r="C15" s="12">
         <v>44710</v>
       </c>
@@ -13102,16 +12925,16 @@
       <c r="E15" s="9">
         <v>31</v>
       </c>
-      <c r="F15" s="141" t="s">
+      <c r="F15" s="142" t="s">
         <v>35</v>
       </c>
-      <c r="G15" s="141"/>
-      <c r="H15" s="141"/>
-      <c r="I15" s="141"/>
+      <c r="G15" s="142"/>
+      <c r="H15" s="142"/>
+      <c r="I15" s="142"/>
       <c r="J15" s="21"/>
     </row>
     <row r="16" spans="2:10" ht="15" customHeight="1">
-      <c r="B16" s="118"/>
+      <c r="B16" s="119"/>
       <c r="C16" s="13" t="s">
         <v>44</v>
       </c>
@@ -13121,14 +12944,14 @@
       <c r="E16" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="F16" s="141"/>
-      <c r="G16" s="141"/>
-      <c r="H16" s="141"/>
-      <c r="I16" s="141"/>
+      <c r="F16" s="142"/>
+      <c r="G16" s="142"/>
+      <c r="H16" s="142"/>
+      <c r="I16" s="142"/>
       <c r="J16" s="22"/>
     </row>
     <row r="17" spans="2:10" ht="73.05" customHeight="1">
-      <c r="B17" s="119"/>
+      <c r="B17" s="120"/>
       <c r="C17" s="27" t="s">
         <v>35</v>
       </c>
@@ -13136,10 +12959,10 @@
         <v>35</v>
       </c>
       <c r="E17" s="28"/>
-      <c r="F17" s="141"/>
-      <c r="G17" s="141"/>
-      <c r="H17" s="141"/>
-      <c r="I17" s="141"/>
+      <c r="F17" s="142"/>
+      <c r="G17" s="142"/>
+      <c r="H17" s="142"/>
+      <c r="I17" s="142"/>
       <c r="J17" s="22"/>
     </row>
     <row r="18" spans="2:10" s="3" customFormat="1" ht="9" customHeight="1">
@@ -13206,7 +13029,7 @@
   <sheetData>
     <row r="1" spans="2:10" ht="13.95" customHeight="1"/>
     <row r="2" spans="2:10" ht="24" customHeight="1">
-      <c r="B2" s="137" t="s">
+      <c r="B2" s="138" t="s">
         <v>62</v>
       </c>
       <c r="C2" s="4">
@@ -13233,12 +13056,12 @@
       <c r="J2" s="20"/>
     </row>
     <row r="3" spans="2:10" s="2" customFormat="1" ht="13.05" customHeight="1">
-      <c r="B3" s="138"/>
-      <c r="C3" s="142" t="s">
+      <c r="B3" s="139"/>
+      <c r="C3" s="143" t="s">
         <v>35</v>
       </c>
-      <c r="D3" s="143"/>
-      <c r="E3" s="144"/>
+      <c r="D3" s="144"/>
+      <c r="E3" s="145"/>
       <c r="F3" s="9">
         <v>44713</v>
       </c>
@@ -13254,10 +13077,10 @@
       <c r="J3" s="21"/>
     </row>
     <row r="4" spans="2:10" ht="16.05" customHeight="1">
-      <c r="B4" s="138"/>
-      <c r="C4" s="145"/>
-      <c r="D4" s="146"/>
-      <c r="E4" s="147"/>
+      <c r="B4" s="139"/>
+      <c r="C4" s="146"/>
+      <c r="D4" s="147"/>
+      <c r="E4" s="148"/>
       <c r="F4" s="10" t="s">
         <v>63</v>
       </c>
@@ -13273,10 +13096,10 @@
       <c r="J4" s="22"/>
     </row>
     <row r="5" spans="2:10" ht="73.05" customHeight="1">
-      <c r="B5" s="139"/>
-      <c r="C5" s="148"/>
-      <c r="D5" s="149"/>
-      <c r="E5" s="150"/>
+      <c r="B5" s="140"/>
+      <c r="C5" s="149"/>
+      <c r="D5" s="150"/>
+      <c r="E5" s="151"/>
       <c r="F5" s="11"/>
       <c r="G5" s="11"/>
       <c r="H5" s="11"/>
@@ -13284,7 +13107,7 @@
       <c r="J5" s="22"/>
     </row>
     <row r="6" spans="2:10" s="2" customFormat="1" ht="15" customHeight="1">
-      <c r="B6" s="118"/>
+      <c r="B6" s="119"/>
       <c r="C6" s="12">
         <v>44717</v>
       </c>
@@ -13309,7 +13132,7 @@
       <c r="J6" s="21"/>
     </row>
     <row r="7" spans="2:10" ht="15" customHeight="1">
-      <c r="B7" s="118"/>
+      <c r="B7" s="119"/>
       <c r="C7" s="13" t="s">
         <v>10</v>
       </c>
@@ -13334,7 +13157,7 @@
       <c r="J7" s="22"/>
     </row>
     <row r="8" spans="2:10" ht="73.05" customHeight="1">
-      <c r="B8" s="118"/>
+      <c r="B8" s="119"/>
       <c r="C8" s="14"/>
       <c r="D8" s="11"/>
       <c r="E8" s="11"/>
@@ -13345,7 +13168,7 @@
       <c r="J8" s="22"/>
     </row>
     <row r="9" spans="2:10" s="2" customFormat="1" ht="15" customHeight="1">
-      <c r="B9" s="118"/>
+      <c r="B9" s="119"/>
       <c r="C9" s="12">
         <v>44724</v>
       </c>
@@ -13370,7 +13193,7 @@
       <c r="J9" s="21"/>
     </row>
     <row r="10" spans="2:10" ht="15" customHeight="1">
-      <c r="B10" s="118"/>
+      <c r="B10" s="119"/>
       <c r="C10" s="13" t="s">
         <v>17</v>
       </c>
@@ -13395,7 +13218,7 @@
       <c r="J10" s="22"/>
     </row>
     <row r="11" spans="2:10" ht="73.05" customHeight="1">
-      <c r="B11" s="118"/>
+      <c r="B11" s="119"/>
       <c r="C11" s="14"/>
       <c r="D11" s="11"/>
       <c r="E11" s="11"/>
@@ -13406,7 +13229,7 @@
       <c r="J11" s="22"/>
     </row>
     <row r="12" spans="2:10" s="2" customFormat="1" ht="15" customHeight="1">
-      <c r="B12" s="118"/>
+      <c r="B12" s="119"/>
       <c r="C12" s="12">
         <v>44731</v>
       </c>
@@ -13431,7 +13254,7 @@
       <c r="J12" s="21"/>
     </row>
     <row r="13" spans="2:10" ht="15" customHeight="1">
-      <c r="B13" s="118"/>
+      <c r="B13" s="119"/>
       <c r="C13" s="13" t="s">
         <v>66</v>
       </c>
@@ -13456,7 +13279,7 @@
       <c r="J13" s="22"/>
     </row>
     <row r="14" spans="2:10" ht="73.05" customHeight="1">
-      <c r="B14" s="118"/>
+      <c r="B14" s="119"/>
       <c r="C14" s="14"/>
       <c r="D14" s="11"/>
       <c r="E14" s="11"/>
@@ -13467,7 +13290,7 @@
       <c r="J14" s="22"/>
     </row>
     <row r="15" spans="2:10" s="2" customFormat="1" ht="15" customHeight="1">
-      <c r="B15" s="118"/>
+      <c r="B15" s="119"/>
       <c r="C15" s="12">
         <v>44738</v>
       </c>
@@ -13483,14 +13306,14 @@
       <c r="G15" s="9">
         <v>44742</v>
       </c>
-      <c r="H15" s="141" t="s">
+      <c r="H15" s="142" t="s">
         <v>35</v>
       </c>
-      <c r="I15" s="141"/>
+      <c r="I15" s="142"/>
       <c r="J15" s="21"/>
     </row>
     <row r="16" spans="2:10" ht="15" customHeight="1">
-      <c r="B16" s="118"/>
+      <c r="B16" s="119"/>
       <c r="C16" s="13" t="s">
         <v>32</v>
       </c>
@@ -13506,12 +13329,12 @@
       <c r="G16" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="H16" s="141"/>
-      <c r="I16" s="141"/>
+      <c r="H16" s="142"/>
+      <c r="I16" s="142"/>
       <c r="J16" s="22"/>
     </row>
     <row r="17" spans="2:10" ht="73.05" customHeight="1">
-      <c r="B17" s="119"/>
+      <c r="B17" s="120"/>
       <c r="C17" s="27" t="s">
         <v>35</v>
       </c>
@@ -13525,8 +13348,8 @@
       <c r="G17" s="28" t="s">
         <v>35</v>
       </c>
-      <c r="H17" s="141"/>
-      <c r="I17" s="141"/>
+      <c r="H17" s="142"/>
+      <c r="I17" s="142"/>
       <c r="J17" s="22"/>
     </row>
     <row r="18" spans="2:10" s="3" customFormat="1" ht="9" customHeight="1">
@@ -13592,7 +13415,7 @@
   <sheetData>
     <row r="1" spans="2:11" ht="13.95" customHeight="1"/>
     <row r="2" spans="2:11" ht="24" customHeight="1">
-      <c r="B2" s="137" t="s">
+      <c r="B2" s="138" t="s">
         <v>69</v>
       </c>
       <c r="C2" s="31">
@@ -13619,14 +13442,14 @@
       <c r="J2" s="46"/>
     </row>
     <row r="3" spans="2:11" s="30" customFormat="1" ht="13.05" customHeight="1">
-      <c r="B3" s="138"/>
-      <c r="C3" s="151" t="s">
+      <c r="B3" s="139"/>
+      <c r="C3" s="152" t="s">
         <v>35</v>
       </c>
-      <c r="D3" s="152"/>
-      <c r="E3" s="152"/>
-      <c r="F3" s="152"/>
-      <c r="G3" s="152"/>
+      <c r="D3" s="153"/>
+      <c r="E3" s="153"/>
+      <c r="F3" s="153"/>
+      <c r="G3" s="153"/>
       <c r="H3" s="36">
         <v>44743</v>
       </c>
@@ -13636,12 +13459,12 @@
       <c r="J3" s="47"/>
     </row>
     <row r="4" spans="2:11" ht="16.05" customHeight="1">
-      <c r="B4" s="138"/>
-      <c r="C4" s="152"/>
-      <c r="D4" s="152"/>
-      <c r="E4" s="152"/>
-      <c r="F4" s="152"/>
-      <c r="G4" s="152"/>
+      <c r="B4" s="139"/>
+      <c r="C4" s="153"/>
+      <c r="D4" s="153"/>
+      <c r="E4" s="153"/>
+      <c r="F4" s="153"/>
+      <c r="G4" s="153"/>
       <c r="H4" s="37" t="s">
         <v>70</v>
       </c>
@@ -13651,18 +13474,18 @@
       <c r="J4" s="48"/>
     </row>
     <row r="5" spans="2:11" ht="73.05" customHeight="1">
-      <c r="B5" s="139"/>
-      <c r="C5" s="152"/>
-      <c r="D5" s="152"/>
-      <c r="E5" s="152"/>
-      <c r="F5" s="152"/>
-      <c r="G5" s="152"/>
+      <c r="B5" s="140"/>
+      <c r="C5" s="153"/>
+      <c r="D5" s="153"/>
+      <c r="E5" s="153"/>
+      <c r="F5" s="153"/>
+      <c r="G5" s="153"/>
       <c r="H5" s="38"/>
       <c r="I5" s="41"/>
       <c r="J5" s="48"/>
     </row>
     <row r="6" spans="2:11" s="30" customFormat="1" ht="15" customHeight="1">
-      <c r="B6" s="118"/>
+      <c r="B6" s="119"/>
       <c r="C6" s="39">
         <v>44745</v>
       </c>
@@ -13687,7 +13510,7 @@
       <c r="J6" s="47"/>
     </row>
     <row r="7" spans="2:11" ht="15" customHeight="1">
-      <c r="B7" s="118"/>
+      <c r="B7" s="119"/>
       <c r="C7" s="40" t="s">
         <v>8</v>
       </c>
@@ -13712,7 +13535,7 @@
       <c r="J7" s="48"/>
     </row>
     <row r="8" spans="2:11" ht="73.05" customHeight="1">
-      <c r="B8" s="118"/>
+      <c r="B8" s="119"/>
       <c r="C8" s="41"/>
       <c r="D8" s="38"/>
       <c r="E8" s="38"/>
@@ -13724,7 +13547,7 @@
       <c r="K8" s="1"/>
     </row>
     <row r="9" spans="2:11" s="30" customFormat="1" ht="15" customHeight="1">
-      <c r="B9" s="118"/>
+      <c r="B9" s="119"/>
       <c r="C9" s="39">
         <v>44752</v>
       </c>
@@ -13749,7 +13572,7 @@
       <c r="J9" s="47"/>
     </row>
     <row r="10" spans="2:11" ht="15" customHeight="1">
-      <c r="B10" s="118"/>
+      <c r="B10" s="119"/>
       <c r="C10" s="40" t="s">
         <v>15</v>
       </c>
@@ -13774,7 +13597,7 @@
       <c r="J10" s="48"/>
     </row>
     <row r="11" spans="2:11" ht="73.05" customHeight="1">
-      <c r="B11" s="118"/>
+      <c r="B11" s="119"/>
       <c r="C11" s="41"/>
       <c r="D11" s="38"/>
       <c r="E11" s="38"/>
@@ -13785,7 +13608,7 @@
       <c r="J11" s="48"/>
     </row>
     <row r="12" spans="2:11" s="30" customFormat="1" ht="15" customHeight="1">
-      <c r="B12" s="118"/>
+      <c r="B12" s="119"/>
       <c r="C12" s="39">
         <v>44759</v>
       </c>
@@ -13810,7 +13633,7 @@
       <c r="J12" s="47"/>
     </row>
     <row r="13" spans="2:11" ht="15" customHeight="1">
-      <c r="B13" s="118"/>
+      <c r="B13" s="119"/>
       <c r="C13" s="40" t="s">
         <v>22</v>
       </c>
@@ -13835,7 +13658,7 @@
       <c r="J13" s="48"/>
     </row>
     <row r="14" spans="2:11" ht="73.05" customHeight="1">
-      <c r="B14" s="118"/>
+      <c r="B14" s="119"/>
       <c r="C14" s="41"/>
       <c r="D14" s="38"/>
       <c r="E14" s="38"/>
@@ -13846,7 +13669,7 @@
       <c r="J14" s="48"/>
     </row>
     <row r="15" spans="2:11" s="30" customFormat="1" ht="15" customHeight="1">
-      <c r="B15" s="118"/>
+      <c r="B15" s="119"/>
       <c r="C15" s="39">
         <v>44766</v>
       </c>
@@ -13871,7 +13694,7 @@
       <c r="J15" s="47"/>
     </row>
     <row r="16" spans="2:11" ht="15" customHeight="1">
-      <c r="B16" s="118"/>
+      <c r="B16" s="119"/>
       <c r="C16" s="40" t="s">
         <v>29</v>
       </c>
@@ -13896,7 +13719,7 @@
       <c r="J16" s="48"/>
     </row>
     <row r="17" spans="2:10" ht="73.05" customHeight="1">
-      <c r="B17" s="119"/>
+      <c r="B17" s="120"/>
       <c r="C17" s="42"/>
       <c r="D17" s="43" t="s">
         <v>35</v>
@@ -13978,7 +13801,7 @@
   <sheetData>
     <row r="1" spans="2:10" ht="13.95" customHeight="1"/>
     <row r="2" spans="2:10" ht="24" customHeight="1">
-      <c r="B2" s="137" t="s">
+      <c r="B2" s="138" t="s">
         <v>74</v>
       </c>
       <c r="C2" s="4">
@@ -14005,8 +13828,8 @@
       <c r="J2" s="20"/>
     </row>
     <row r="3" spans="2:10" s="2" customFormat="1" ht="13.05" customHeight="1">
-      <c r="B3" s="138"/>
-      <c r="C3" s="153" t="s">
+      <c r="B3" s="139"/>
+      <c r="C3" s="154" t="s">
         <v>35</v>
       </c>
       <c r="D3" s="9">
@@ -14030,8 +13853,8 @@
       <c r="J3" s="21"/>
     </row>
     <row r="4" spans="2:10" ht="16.05" customHeight="1">
-      <c r="B4" s="138"/>
-      <c r="C4" s="154"/>
+      <c r="B4" s="139"/>
+      <c r="C4" s="155"/>
       <c r="D4" s="10" t="s">
         <v>75</v>
       </c>
@@ -14053,8 +13876,8 @@
       <c r="J4" s="22"/>
     </row>
     <row r="5" spans="2:10" ht="73.05" customHeight="1">
-      <c r="B5" s="139"/>
-      <c r="C5" s="155"/>
+      <c r="B5" s="140"/>
+      <c r="C5" s="156"/>
       <c r="D5" s="11"/>
       <c r="E5" s="11"/>
       <c r="F5" s="11"/>
@@ -14064,7 +13887,7 @@
       <c r="J5" s="22"/>
     </row>
     <row r="6" spans="2:10" s="2" customFormat="1" ht="15" customHeight="1">
-      <c r="B6" s="118"/>
+      <c r="B6" s="119"/>
       <c r="C6" s="12">
         <v>44780</v>
       </c>
@@ -14089,7 +13912,7 @@
       <c r="J6" s="21"/>
     </row>
     <row r="7" spans="2:10" ht="15" customHeight="1">
-      <c r="B7" s="118"/>
+      <c r="B7" s="119"/>
       <c r="C7" s="13" t="s">
         <v>76</v>
       </c>
@@ -14114,7 +13937,7 @@
       <c r="J7" s="22"/>
     </row>
     <row r="8" spans="2:10" ht="73.05" customHeight="1">
-      <c r="B8" s="118"/>
+      <c r="B8" s="119"/>
       <c r="C8" s="14"/>
       <c r="D8" s="11"/>
       <c r="E8" s="11">
@@ -14127,7 +13950,7 @@
       <c r="J8" s="22"/>
     </row>
     <row r="9" spans="2:10" s="2" customFormat="1" ht="15" customHeight="1">
-      <c r="B9" s="118"/>
+      <c r="B9" s="119"/>
       <c r="C9" s="12">
         <v>44787</v>
       </c>
@@ -14150,7 +13973,7 @@
       <c r="J9" s="21"/>
     </row>
     <row r="10" spans="2:10" ht="15" customHeight="1">
-      <c r="B10" s="118"/>
+      <c r="B10" s="119"/>
       <c r="C10" s="13" t="s">
         <v>20</v>
       </c>
@@ -14175,7 +13998,7 @@
       <c r="J10" s="22"/>
     </row>
     <row r="11" spans="2:10" ht="73.05" customHeight="1">
-      <c r="B11" s="118"/>
+      <c r="B11" s="119"/>
       <c r="C11" s="14"/>
       <c r="D11" s="11"/>
       <c r="E11" s="11"/>
@@ -14186,7 +14009,7 @@
       <c r="J11" s="22"/>
     </row>
     <row r="12" spans="2:10" s="2" customFormat="1" ht="15" customHeight="1">
-      <c r="B12" s="118"/>
+      <c r="B12" s="119"/>
       <c r="C12" s="12">
         <v>44794</v>
       </c>
@@ -14211,7 +14034,7 @@
       <c r="J12" s="21"/>
     </row>
     <row r="13" spans="2:10" ht="15" customHeight="1">
-      <c r="B13" s="118"/>
+      <c r="B13" s="119"/>
       <c r="C13" s="13" t="s">
         <v>27</v>
       </c>
@@ -14236,7 +14059,7 @@
       <c r="J13" s="22"/>
     </row>
     <row r="14" spans="2:10" ht="73.05" customHeight="1">
-      <c r="B14" s="118"/>
+      <c r="B14" s="119"/>
       <c r="C14" s="14"/>
       <c r="D14" s="11"/>
       <c r="E14" s="11"/>
@@ -14247,7 +14070,7 @@
       <c r="J14" s="22"/>
     </row>
     <row r="15" spans="2:10" s="2" customFormat="1" ht="15" customHeight="1">
-      <c r="B15" s="118"/>
+      <c r="B15" s="119"/>
       <c r="C15" s="12">
         <v>44801</v>
       </c>
@@ -14260,15 +14083,15 @@
       <c r="F15" s="9">
         <v>44804</v>
       </c>
-      <c r="G15" s="141" t="s">
+      <c r="G15" s="142" t="s">
         <v>35</v>
       </c>
-      <c r="H15" s="141"/>
-      <c r="I15" s="141"/>
+      <c r="H15" s="142"/>
+      <c r="I15" s="142"/>
       <c r="J15" s="21"/>
     </row>
     <row r="16" spans="2:10" ht="15" customHeight="1">
-      <c r="B16" s="118"/>
+      <c r="B16" s="119"/>
       <c r="C16" s="13" t="s">
         <v>5</v>
       </c>
@@ -14281,13 +14104,13 @@
       <c r="F16" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="G16" s="141"/>
-      <c r="H16" s="141"/>
-      <c r="I16" s="141"/>
+      <c r="G16" s="142"/>
+      <c r="H16" s="142"/>
+      <c r="I16" s="142"/>
       <c r="J16" s="22"/>
     </row>
     <row r="17" spans="2:10" ht="73.05" customHeight="1">
-      <c r="B17" s="119"/>
+      <c r="B17" s="120"/>
       <c r="C17" s="27" t="s">
         <v>35</v>
       </c>
@@ -14298,9 +14121,9 @@
       <c r="F17" s="28" t="s">
         <v>35</v>
       </c>
-      <c r="G17" s="141"/>
-      <c r="H17" s="141"/>
-      <c r="I17" s="141"/>
+      <c r="G17" s="142"/>
+      <c r="H17" s="142"/>
+      <c r="I17" s="142"/>
       <c r="J17" s="22"/>
     </row>
     <row r="18" spans="2:10" s="3" customFormat="1" ht="9" customHeight="1">
@@ -14366,7 +14189,7 @@
   <sheetData>
     <row r="1" spans="2:10" ht="13.95" customHeight="1"/>
     <row r="2" spans="2:10" ht="24" customHeight="1">
-      <c r="B2" s="156" t="s">
+      <c r="B2" s="157" t="s">
         <v>80</v>
       </c>
       <c r="C2" s="4">
@@ -14393,13 +14216,13 @@
       <c r="J2" s="20"/>
     </row>
     <row r="3" spans="2:10" s="2" customFormat="1" ht="13.05" customHeight="1">
-      <c r="B3" s="157"/>
-      <c r="C3" s="140" t="s">
+      <c r="B3" s="158"/>
+      <c r="C3" s="141" t="s">
         <v>35</v>
       </c>
-      <c r="D3" s="141"/>
-      <c r="E3" s="141"/>
-      <c r="F3" s="141"/>
+      <c r="D3" s="142"/>
+      <c r="E3" s="142"/>
+      <c r="F3" s="142"/>
       <c r="G3" s="9">
         <v>44805</v>
       </c>
@@ -14412,11 +14235,11 @@
       <c r="J3" s="21"/>
     </row>
     <row r="4" spans="2:10" ht="16.05" customHeight="1">
-      <c r="B4" s="157"/>
-      <c r="C4" s="141"/>
-      <c r="D4" s="141"/>
-      <c r="E4" s="141"/>
-      <c r="F4" s="141"/>
+      <c r="B4" s="158"/>
+      <c r="C4" s="142"/>
+      <c r="D4" s="142"/>
+      <c r="E4" s="142"/>
+      <c r="F4" s="142"/>
       <c r="G4" s="10" t="s">
         <v>9</v>
       </c>
@@ -14429,18 +14252,18 @@
       <c r="J4" s="22"/>
     </row>
     <row r="5" spans="2:10" ht="73.05" customHeight="1">
-      <c r="B5" s="158"/>
-      <c r="C5" s="141"/>
-      <c r="D5" s="141"/>
-      <c r="E5" s="141"/>
-      <c r="F5" s="141"/>
+      <c r="B5" s="159"/>
+      <c r="C5" s="142"/>
+      <c r="D5" s="142"/>
+      <c r="E5" s="142"/>
+      <c r="F5" s="142"/>
       <c r="G5" s="11"/>
       <c r="H5" s="11"/>
       <c r="I5" s="14"/>
       <c r="J5" s="22"/>
     </row>
     <row r="6" spans="2:10" s="2" customFormat="1" ht="15" customHeight="1">
-      <c r="B6" s="118"/>
+      <c r="B6" s="119"/>
       <c r="C6" s="12">
         <v>44808</v>
       </c>
@@ -14465,7 +14288,7 @@
       <c r="J6" s="21"/>
     </row>
     <row r="7" spans="2:10" ht="15" customHeight="1">
-      <c r="B7" s="118"/>
+      <c r="B7" s="119"/>
       <c r="C7" s="13" t="s">
         <v>12</v>
       </c>
@@ -14490,7 +14313,7 @@
       <c r="J7" s="22"/>
     </row>
     <row r="8" spans="2:10" ht="73.05" customHeight="1">
-      <c r="B8" s="118"/>
+      <c r="B8" s="119"/>
       <c r="C8" s="14"/>
       <c r="D8" s="11"/>
       <c r="E8" s="11"/>
@@ -14501,7 +14324,7 @@
       <c r="J8" s="22"/>
     </row>
     <row r="9" spans="2:10" s="2" customFormat="1" ht="15" customHeight="1">
-      <c r="B9" s="118"/>
+      <c r="B9" s="119"/>
       <c r="C9" s="12">
         <v>44815</v>
       </c>
@@ -14526,7 +14349,7 @@
       <c r="J9" s="21"/>
     </row>
     <row r="10" spans="2:10" ht="15" customHeight="1">
-      <c r="B10" s="118"/>
+      <c r="B10" s="119"/>
       <c r="C10" s="13" t="s">
         <v>19</v>
       </c>
@@ -14551,7 +14374,7 @@
       <c r="J10" s="22"/>
     </row>
     <row r="11" spans="2:10" ht="73.05" customHeight="1">
-      <c r="B11" s="118"/>
+      <c r="B11" s="119"/>
       <c r="C11" s="14"/>
       <c r="D11" s="11"/>
       <c r="E11" s="11"/>
@@ -14562,7 +14385,7 @@
       <c r="J11" s="22"/>
     </row>
     <row r="12" spans="2:10" s="2" customFormat="1" ht="15" customHeight="1">
-      <c r="B12" s="118"/>
+      <c r="B12" s="119"/>
       <c r="C12" s="12">
         <v>44822</v>
       </c>
@@ -14587,7 +14410,7 @@
       <c r="J12" s="21"/>
     </row>
     <row r="13" spans="2:10" ht="15" customHeight="1">
-      <c r="B13" s="118"/>
+      <c r="B13" s="119"/>
       <c r="C13" s="13" t="s">
         <v>26</v>
       </c>
@@ -14612,7 +14435,7 @@
       <c r="J13" s="22"/>
     </row>
     <row r="14" spans="2:10" ht="73.05" customHeight="1">
-      <c r="B14" s="118"/>
+      <c r="B14" s="119"/>
       <c r="C14" s="14"/>
       <c r="D14" s="11"/>
       <c r="E14" s="11"/>
@@ -14623,7 +14446,7 @@
       <c r="J14" s="22"/>
     </row>
     <row r="15" spans="2:10" s="2" customFormat="1" ht="15" customHeight="1">
-      <c r="B15" s="118"/>
+      <c r="B15" s="119"/>
       <c r="C15" s="12">
         <v>44829</v>
       </c>
@@ -14642,13 +14465,13 @@
       <c r="H15" s="9">
         <v>44834</v>
       </c>
-      <c r="I15" s="141" t="s">
+      <c r="I15" s="142" t="s">
         <v>35</v>
       </c>
       <c r="J15" s="21"/>
     </row>
     <row r="16" spans="2:10" ht="15" customHeight="1">
-      <c r="B16" s="118"/>
+      <c r="B16" s="119"/>
       <c r="C16" s="13" t="s">
         <v>3</v>
       </c>
@@ -14667,18 +14490,18 @@
       <c r="H16" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="I16" s="141"/>
+      <c r="I16" s="142"/>
       <c r="J16" s="22"/>
     </row>
     <row r="17" spans="2:10" ht="73.05" customHeight="1">
-      <c r="B17" s="119"/>
+      <c r="B17" s="120"/>
       <c r="C17" s="14"/>
       <c r="D17" s="11"/>
       <c r="E17" s="11"/>
       <c r="F17" s="11"/>
       <c r="G17" s="11"/>
       <c r="H17" s="11"/>
-      <c r="I17" s="141"/>
+      <c r="I17" s="142"/>
       <c r="J17" s="22"/>
     </row>
     <row r="18" spans="2:10" s="3" customFormat="1" ht="9" customHeight="1">

--- a/draft/日历.xlsx
+++ b/draft/日历.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="d:\Desktop\note\draft\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\note\draft\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F770161B-91CE-475C-AE74-32DCD98C5571}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2013E96C-7864-48DD-AB74-EE596939BF05}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="17496" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="1月" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="449" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="448" uniqueCount="117">
   <si>
     <t>二</t>
   </si>
@@ -1320,21 +1320,24 @@
     <xf numFmtId="0" fontId="25" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="176" fontId="31" fillId="3" borderId="2" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="26" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="6" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="6" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="6" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="176" fontId="26" fillId="3" borderId="2" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="26" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="6" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="6" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="6" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1426,9 +1429,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="1" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="31" fillId="3" borderId="2" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -6543,15 +6543,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>142874</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>180974</xdr:rowOff>
+      <xdr:colOff>214311</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>97630</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>485774</xdr:colOff>
+      <xdr:colOff>557211</xdr:colOff>
       <xdr:row>7</xdr:row>
-      <xdr:rowOff>139488</xdr:rowOff>
+      <xdr:rowOff>246644</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -6566,7 +6566,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9534524" y="1943099"/>
+          <a:off x="10691811" y="3371849"/>
           <a:ext cx="342900" cy="339514"/>
         </a:xfrm>
         <a:prstGeom prst="star5">
@@ -6740,15 +6740,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>857249</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>161924</xdr:rowOff>
+      <xdr:colOff>928686</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>78580</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>1200149</xdr:colOff>
+      <xdr:colOff>1271586</xdr:colOff>
       <xdr:row>7</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:rowOff>259556</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -6763,7 +6763,401 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="10248899" y="1924049"/>
+          <a:off x="11406186" y="3352799"/>
+          <a:ext cx="342900" cy="371476"/>
+        </a:xfrm>
+        <a:prstGeom prst="star5">
+          <a:avLst>
+            <a:gd name="adj" fmla="val 25087"/>
+            <a:gd name="hf" fmla="val 105146"/>
+            <a:gd name="vf" fmla="val 110557"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:gradFill>
+          <a:gsLst>
+            <a:gs pos="100000">
+              <a:schemeClr val="accent6">
+                <a:lumMod val="60000"/>
+                <a:lumOff val="40000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="0">
+              <a:srgbClr val="0CA451"/>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="100000" t="100000"/>
+          </a:path>
+          <a:tileRect r="-100000" b="-100000"/>
+        </a:gradFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst>
+          <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+            <a:schemeClr val="tx1">
+              <a:lumMod val="50000"/>
+              <a:lumOff val="50000"/>
+              <a:alpha val="40000"/>
+            </a:schemeClr>
+          </a:outerShdw>
+        </a:effectLst>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="t" anchorCtr="0" forceAA="0" compatLnSpc="1">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle>
+          <a:defPPr>
+            <a:defRPr lang="zh-CN">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+            </a:defRPr>
+          </a:defPPr>
+          <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr algn="l">
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>342900</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>168064</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="9" name="五角星 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B6BA32A2-B009-46F5-8A23-612D8C1F2F6B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10477500" y="1983581"/>
+          <a:ext cx="342900" cy="339514"/>
+        </a:xfrm>
+        <a:prstGeom prst="star5">
+          <a:avLst>
+            <a:gd name="adj" fmla="val 25087"/>
+            <a:gd name="hf" fmla="val 105146"/>
+            <a:gd name="vf" fmla="val 110557"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:gradFill>
+          <a:gsLst>
+            <a:gs pos="100000">
+              <a:schemeClr val="accent6">
+                <a:lumMod val="60000"/>
+                <a:lumOff val="40000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="0">
+              <a:srgbClr val="0CA451"/>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="100000" t="100000"/>
+          </a:path>
+          <a:tileRect r="-100000" b="-100000"/>
+        </a:gradFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst>
+          <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+            <a:schemeClr val="tx1">
+              <a:lumMod val="50000"/>
+              <a:lumOff val="50000"/>
+              <a:alpha val="40000"/>
+            </a:schemeClr>
+          </a:outerShdw>
+        </a:effectLst>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="t" anchorCtr="0" forceAA="0" compatLnSpc="1">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle>
+          <a:defPPr>
+            <a:defRPr lang="zh-CN">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+            </a:defRPr>
+          </a:defPPr>
+          <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr algn="l">
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>714375</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>1057275</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>180976</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="10" name="五角星 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5CB164F4-FA4E-4974-9230-311146A6B6E8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11191875" y="1964531"/>
           <a:ext cx="342900" cy="371476"/>
         </a:xfrm>
         <a:prstGeom prst="star5">
@@ -9550,17 +9944,17 @@
       <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="23.88671875" defaultRowHeight="17.399999999999999"/>
+  <sheetFormatPr defaultColWidth="23.875" defaultRowHeight="18.75"/>
   <cols>
-    <col min="1" max="1" width="2.33203125" style="50" customWidth="1"/>
-    <col min="2" max="2" width="30.44140625" style="50" customWidth="1"/>
-    <col min="3" max="9" width="20.88671875" style="50" customWidth="1"/>
-    <col min="10" max="10" width="1.21875" style="50" customWidth="1"/>
-    <col min="11" max="15799" width="23.88671875" style="50"/>
-    <col min="15800" max="16384" width="23.88671875" style="104"/>
+    <col min="1" max="1" width="2.375" style="50" customWidth="1"/>
+    <col min="2" max="2" width="30.5" style="50" customWidth="1"/>
+    <col min="3" max="9" width="20.875" style="50" customWidth="1"/>
+    <col min="10" max="10" width="1.25" style="50" customWidth="1"/>
+    <col min="11" max="15799" width="23.875" style="50"/>
+    <col min="15800" max="16384" width="23.875" style="104"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:10" s="50" customFormat="1" ht="13.95" customHeight="1"/>
+    <row r="1" spans="2:10" s="50" customFormat="1" ht="13.9" customHeight="1"/>
     <row r="2" spans="2:10" s="50" customFormat="1" ht="24" customHeight="1">
       <c r="B2" s="116" t="s">
         <v>103</v>
@@ -9588,7 +9982,7 @@
       </c>
       <c r="J2" s="98"/>
     </row>
-    <row r="3" spans="2:10" s="50" customFormat="1" ht="13.05" customHeight="1">
+    <row r="3" spans="2:10" s="50" customFormat="1" ht="13.15" customHeight="1">
       <c r="B3" s="117"/>
       <c r="C3" s="121" t="s">
         <v>1</v>
@@ -9603,7 +9997,7 @@
       </c>
       <c r="J3" s="80"/>
     </row>
-    <row r="4" spans="2:10" s="50" customFormat="1" ht="13.05" customHeight="1">
+    <row r="4" spans="2:10" s="50" customFormat="1" ht="13.15" customHeight="1">
       <c r="B4" s="117"/>
       <c r="C4" s="121"/>
       <c r="D4" s="121"/>
@@ -9967,18 +10361,18 @@
   <sheetViews>
     <sheetView showGridLines="0" topLeftCell="A8" zoomScale="80" zoomScaleNormal="80" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="23.88671875" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="23.875" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="2.33203125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="30.44140625" style="3" customWidth="1"/>
-    <col min="3" max="9" width="20.88671875" style="1" customWidth="1"/>
-    <col min="10" max="10" width="1.21875" style="1" customWidth="1"/>
-    <col min="11" max="16384" width="23.88671875" style="1"/>
+    <col min="1" max="1" width="2.375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="30.5" style="3" customWidth="1"/>
+    <col min="3" max="9" width="20.875" style="1" customWidth="1"/>
+    <col min="10" max="10" width="1.25" style="1" customWidth="1"/>
+    <col min="11" max="16384" width="23.875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:10" ht="13.95" customHeight="1"/>
+    <row r="1" spans="2:10" ht="13.9" customHeight="1"/>
     <row r="2" spans="2:10" ht="24" customHeight="1">
-      <c r="B2" s="138" t="s">
+      <c r="B2" s="139" t="s">
         <v>85</v>
       </c>
       <c r="C2" s="4">
@@ -10004,42 +10398,42 @@
       </c>
       <c r="J2" s="20"/>
     </row>
-    <row r="3" spans="2:10" s="2" customFormat="1" ht="13.05" customHeight="1">
-      <c r="B3" s="139"/>
-      <c r="C3" s="141" t="s">
+    <row r="3" spans="2:10" s="2" customFormat="1" ht="13.15" customHeight="1">
+      <c r="B3" s="140"/>
+      <c r="C3" s="142" t="s">
         <v>35</v>
       </c>
-      <c r="D3" s="142"/>
-      <c r="E3" s="142"/>
-      <c r="F3" s="142"/>
-      <c r="G3" s="142"/>
-      <c r="H3" s="142"/>
+      <c r="D3" s="143"/>
+      <c r="E3" s="143"/>
+      <c r="F3" s="143"/>
+      <c r="G3" s="143"/>
+      <c r="H3" s="143"/>
       <c r="I3" s="26">
         <v>44835</v>
       </c>
       <c r="J3" s="21"/>
     </row>
-    <row r="4" spans="2:10" ht="16.05" customHeight="1">
-      <c r="B4" s="139"/>
-      <c r="C4" s="142"/>
-      <c r="D4" s="142"/>
-      <c r="E4" s="142"/>
-      <c r="F4" s="142"/>
-      <c r="G4" s="142"/>
-      <c r="H4" s="142"/>
+    <row r="4" spans="2:10" ht="16.149999999999999" customHeight="1">
+      <c r="B4" s="140"/>
+      <c r="C4" s="143"/>
+      <c r="D4" s="143"/>
+      <c r="E4" s="143"/>
+      <c r="F4" s="143"/>
+      <c r="G4" s="143"/>
+      <c r="H4" s="143"/>
       <c r="I4" s="13" t="s">
         <v>86</v>
       </c>
       <c r="J4" s="22"/>
     </row>
-    <row r="5" spans="2:10" ht="73.05" customHeight="1">
-      <c r="B5" s="140"/>
-      <c r="C5" s="142"/>
-      <c r="D5" s="142"/>
-      <c r="E5" s="142"/>
-      <c r="F5" s="142"/>
-      <c r="G5" s="142"/>
-      <c r="H5" s="142"/>
+    <row r="5" spans="2:10" ht="73.150000000000006" customHeight="1">
+      <c r="B5" s="141"/>
+      <c r="C5" s="143"/>
+      <c r="D5" s="143"/>
+      <c r="E5" s="143"/>
+      <c r="F5" s="143"/>
+      <c r="G5" s="143"/>
+      <c r="H5" s="143"/>
       <c r="I5" s="14"/>
       <c r="J5" s="22"/>
     </row>
@@ -10093,7 +10487,7 @@
       </c>
       <c r="J7" s="22"/>
     </row>
-    <row r="8" spans="2:10" ht="73.05" customHeight="1">
+    <row r="8" spans="2:10" ht="73.150000000000006" customHeight="1">
       <c r="B8" s="119"/>
       <c r="C8" s="14"/>
       <c r="D8" s="11"/>
@@ -10154,7 +10548,7 @@
       </c>
       <c r="J10" s="22"/>
     </row>
-    <row r="11" spans="2:10" ht="73.05" customHeight="1">
+    <row r="11" spans="2:10" ht="73.150000000000006" customHeight="1">
       <c r="B11" s="119"/>
       <c r="C11" s="14"/>
       <c r="D11" s="11"/>
@@ -10215,7 +10609,7 @@
       </c>
       <c r="J13" s="22"/>
     </row>
-    <row r="14" spans="2:10" ht="73.05" customHeight="1">
+    <row r="14" spans="2:10" ht="73.150000000000006" customHeight="1">
       <c r="B14" s="119"/>
       <c r="C14" s="14"/>
       <c r="D14" s="11"/>
@@ -10276,7 +10670,7 @@
       </c>
       <c r="J16" s="22"/>
     </row>
-    <row r="17" spans="2:10" ht="73.05" customHeight="1">
+    <row r="17" spans="2:10" ht="73.150000000000006" customHeight="1">
       <c r="B17" s="119"/>
       <c r="C17" s="14"/>
       <c r="D17" s="11"/>
@@ -10295,13 +10689,13 @@
       <c r="D18" s="9">
         <v>44865</v>
       </c>
-      <c r="E18" s="160" t="s">
+      <c r="E18" s="161" t="s">
         <v>35</v>
       </c>
-      <c r="F18" s="161"/>
-      <c r="G18" s="161"/>
-      <c r="H18" s="161"/>
-      <c r="I18" s="162"/>
+      <c r="F18" s="162"/>
+      <c r="G18" s="162"/>
+      <c r="H18" s="162"/>
+      <c r="I18" s="163"/>
       <c r="J18" s="22"/>
     </row>
     <row r="19" spans="2:10" ht="15" customHeight="1">
@@ -10312,22 +10706,22 @@
       <c r="D19" s="10" t="s">
         <v>91</v>
       </c>
-      <c r="E19" s="163"/>
-      <c r="F19" s="164"/>
-      <c r="G19" s="164"/>
-      <c r="H19" s="164"/>
-      <c r="I19" s="165"/>
+      <c r="E19" s="164"/>
+      <c r="F19" s="165"/>
+      <c r="G19" s="165"/>
+      <c r="H19" s="165"/>
+      <c r="I19" s="166"/>
       <c r="J19" s="22"/>
     </row>
     <row r="20" spans="2:10" ht="75" customHeight="1">
       <c r="B20" s="120"/>
       <c r="C20" s="14"/>
       <c r="D20" s="11"/>
-      <c r="E20" s="166"/>
-      <c r="F20" s="167"/>
-      <c r="G20" s="167"/>
-      <c r="H20" s="167"/>
-      <c r="I20" s="168"/>
+      <c r="E20" s="167"/>
+      <c r="F20" s="168"/>
+      <c r="G20" s="168"/>
+      <c r="H20" s="168"/>
+      <c r="I20" s="169"/>
       <c r="J20" s="22"/>
     </row>
     <row r="21" spans="2:10" s="3" customFormat="1" ht="9" customHeight="1">
@@ -10364,18 +10758,18 @@
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="80" zoomScaleNormal="80" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="23.88671875" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="23.875" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="2.33203125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="30.44140625" style="3" customWidth="1"/>
-    <col min="3" max="9" width="20.88671875" style="1" customWidth="1"/>
-    <col min="10" max="10" width="1.21875" style="1" customWidth="1"/>
-    <col min="11" max="16384" width="23.88671875" style="1"/>
+    <col min="1" max="1" width="2.375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="30.5" style="3" customWidth="1"/>
+    <col min="3" max="9" width="20.875" style="1" customWidth="1"/>
+    <col min="10" max="10" width="1.25" style="1" customWidth="1"/>
+    <col min="11" max="16384" width="23.875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:10" ht="13.95" customHeight="1"/>
+    <row r="1" spans="2:10" ht="13.9" customHeight="1"/>
     <row r="2" spans="2:10" ht="24" customHeight="1">
-      <c r="B2" s="157" t="s">
+      <c r="B2" s="158" t="s">
         <v>92</v>
       </c>
       <c r="C2" s="4">
@@ -10401,12 +10795,12 @@
       </c>
       <c r="J2" s="20"/>
     </row>
-    <row r="3" spans="2:10" s="2" customFormat="1" ht="13.05" customHeight="1">
-      <c r="B3" s="139"/>
-      <c r="C3" s="141" t="s">
+    <row r="3" spans="2:10" s="2" customFormat="1" ht="13.15" customHeight="1">
+      <c r="B3" s="140"/>
+      <c r="C3" s="142" t="s">
         <v>35</v>
       </c>
-      <c r="D3" s="142"/>
+      <c r="D3" s="143"/>
       <c r="E3" s="9">
         <v>1</v>
       </c>
@@ -10424,10 +10818,10 @@
       </c>
       <c r="J3" s="21"/>
     </row>
-    <row r="4" spans="2:10" ht="16.05" customHeight="1">
-      <c r="B4" s="139"/>
-      <c r="C4" s="142"/>
-      <c r="D4" s="142"/>
+    <row r="4" spans="2:10" ht="16.149999999999999" customHeight="1">
+      <c r="B4" s="140"/>
+      <c r="C4" s="143"/>
+      <c r="D4" s="143"/>
       <c r="E4" s="10" t="s">
         <v>11</v>
       </c>
@@ -10445,10 +10839,10 @@
       </c>
       <c r="J4" s="22"/>
     </row>
-    <row r="5" spans="2:10" ht="73.05" customHeight="1">
-      <c r="B5" s="140"/>
-      <c r="C5" s="142"/>
-      <c r="D5" s="142"/>
+    <row r="5" spans="2:10" ht="73.150000000000006" customHeight="1">
+      <c r="B5" s="141"/>
+      <c r="C5" s="143"/>
+      <c r="D5" s="143"/>
       <c r="E5" s="23"/>
       <c r="F5" s="11"/>
       <c r="G5" s="11"/>
@@ -10506,7 +10900,7 @@
       </c>
       <c r="J7" s="22"/>
     </row>
-    <row r="8" spans="2:10" ht="73.05" customHeight="1">
+    <row r="8" spans="2:10" ht="73.150000000000006" customHeight="1">
       <c r="B8" s="119"/>
       <c r="C8" s="14"/>
       <c r="D8" s="11"/>
@@ -10567,7 +10961,7 @@
       </c>
       <c r="J10" s="22"/>
     </row>
-    <row r="11" spans="2:10" ht="73.05" customHeight="1">
+    <row r="11" spans="2:10" ht="73.150000000000006" customHeight="1">
       <c r="B11" s="119"/>
       <c r="C11" s="14"/>
       <c r="D11" s="11"/>
@@ -10628,7 +11022,7 @@
       </c>
       <c r="J13" s="22"/>
     </row>
-    <row r="14" spans="2:10" ht="73.05" customHeight="1">
+    <row r="14" spans="2:10" ht="73.150000000000006" customHeight="1">
       <c r="B14" s="119"/>
       <c r="C14" s="14"/>
       <c r="D14" s="11"/>
@@ -10653,11 +11047,11 @@
       <c r="F15" s="9">
         <v>44895</v>
       </c>
-      <c r="G15" s="142" t="s">
+      <c r="G15" s="143" t="s">
         <v>35</v>
       </c>
-      <c r="H15" s="142"/>
-      <c r="I15" s="142"/>
+      <c r="H15" s="143"/>
+      <c r="I15" s="143"/>
       <c r="J15" s="21"/>
     </row>
     <row r="16" spans="2:10" ht="15" customHeight="1">
@@ -10674,20 +11068,20 @@
       <c r="F16" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="G16" s="142"/>
-      <c r="H16" s="142"/>
-      <c r="I16" s="142"/>
+      <c r="G16" s="143"/>
+      <c r="H16" s="143"/>
+      <c r="I16" s="143"/>
       <c r="J16" s="22"/>
     </row>
-    <row r="17" spans="2:10" ht="73.05" customHeight="1">
+    <row r="17" spans="2:10" ht="73.150000000000006" customHeight="1">
       <c r="B17" s="120"/>
       <c r="C17" s="14"/>
       <c r="D17" s="11"/>
       <c r="E17" s="11"/>
       <c r="F17" s="11"/>
-      <c r="G17" s="142"/>
-      <c r="H17" s="142"/>
-      <c r="I17" s="142"/>
+      <c r="G17" s="143"/>
+      <c r="H17" s="143"/>
+      <c r="I17" s="143"/>
       <c r="J17" s="22"/>
     </row>
     <row r="18" spans="2:10" s="3" customFormat="1" ht="9" customHeight="1">
@@ -10744,18 +11138,18 @@
       <selection activeCell="C3" sqref="C3:F5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="23.88671875" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="23.875" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="2.33203125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="30.44140625" style="3" customWidth="1"/>
-    <col min="3" max="9" width="20.88671875" style="1" customWidth="1"/>
-    <col min="10" max="10" width="1.21875" style="1" customWidth="1"/>
-    <col min="11" max="16384" width="23.88671875" style="1"/>
+    <col min="1" max="1" width="2.375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="30.5" style="3" customWidth="1"/>
+    <col min="3" max="9" width="20.875" style="1" customWidth="1"/>
+    <col min="10" max="10" width="1.25" style="1" customWidth="1"/>
+    <col min="11" max="16384" width="23.875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:10" ht="13.95" customHeight="1"/>
+    <row r="1" spans="2:10" ht="13.9" customHeight="1"/>
     <row r="2" spans="2:10" ht="24" customHeight="1">
-      <c r="B2" s="157" t="s">
+      <c r="B2" s="158" t="s">
         <v>97</v>
       </c>
       <c r="C2" s="4">
@@ -10781,14 +11175,14 @@
       </c>
       <c r="J2" s="20"/>
     </row>
-    <row r="3" spans="2:10" s="2" customFormat="1" ht="13.05" customHeight="1">
-      <c r="B3" s="139"/>
-      <c r="C3" s="141" t="s">
+    <row r="3" spans="2:10" s="2" customFormat="1" ht="13.15" customHeight="1">
+      <c r="B3" s="140"/>
+      <c r="C3" s="142" t="s">
         <v>35</v>
       </c>
-      <c r="D3" s="142"/>
-      <c r="E3" s="142"/>
-      <c r="F3" s="142"/>
+      <c r="D3" s="143"/>
+      <c r="E3" s="143"/>
+      <c r="F3" s="143"/>
       <c r="G3" s="9">
         <v>44896</v>
       </c>
@@ -10800,12 +11194,12 @@
       </c>
       <c r="J3" s="21"/>
     </row>
-    <row r="4" spans="2:10" ht="16.05" customHeight="1">
-      <c r="B4" s="139"/>
-      <c r="C4" s="142"/>
-      <c r="D4" s="142"/>
-      <c r="E4" s="142"/>
-      <c r="F4" s="142"/>
+    <row r="4" spans="2:10" ht="16.149999999999999" customHeight="1">
+      <c r="B4" s="140"/>
+      <c r="C4" s="143"/>
+      <c r="D4" s="143"/>
+      <c r="E4" s="143"/>
+      <c r="F4" s="143"/>
       <c r="G4" s="10" t="s">
         <v>11</v>
       </c>
@@ -10817,12 +11211,12 @@
       </c>
       <c r="J4" s="22"/>
     </row>
-    <row r="5" spans="2:10" ht="73.05" customHeight="1">
-      <c r="B5" s="140"/>
-      <c r="C5" s="142"/>
-      <c r="D5" s="142"/>
-      <c r="E5" s="142"/>
-      <c r="F5" s="142"/>
+    <row r="5" spans="2:10" ht="73.150000000000006" customHeight="1">
+      <c r="B5" s="141"/>
+      <c r="C5" s="143"/>
+      <c r="D5" s="143"/>
+      <c r="E5" s="143"/>
+      <c r="F5" s="143"/>
       <c r="G5" s="11"/>
       <c r="H5" s="11"/>
       <c r="I5" s="14"/>
@@ -10878,7 +11272,7 @@
       </c>
       <c r="J7" s="22"/>
     </row>
-    <row r="8" spans="2:10" ht="73.05" customHeight="1">
+    <row r="8" spans="2:10" ht="73.150000000000006" customHeight="1">
       <c r="B8" s="119"/>
       <c r="C8" s="14"/>
       <c r="D8" s="11"/>
@@ -10939,7 +11333,7 @@
       </c>
       <c r="J10" s="22"/>
     </row>
-    <row r="11" spans="2:10" ht="73.05" customHeight="1">
+    <row r="11" spans="2:10" ht="73.150000000000006" customHeight="1">
       <c r="B11" s="119"/>
       <c r="C11" s="14"/>
       <c r="D11" s="11"/>
@@ -11000,7 +11394,7 @@
       </c>
       <c r="J13" s="22"/>
     </row>
-    <row r="14" spans="2:10" ht="73.05" customHeight="1">
+    <row r="14" spans="2:10" ht="73.150000000000006" customHeight="1">
       <c r="B14" s="119"/>
       <c r="C14" s="14"/>
       <c r="D14" s="11"/>
@@ -11061,7 +11455,7 @@
       </c>
       <c r="J16" s="22"/>
     </row>
-    <row r="17" spans="2:10" ht="73.05" customHeight="1">
+    <row r="17" spans="2:10" ht="73.150000000000006" customHeight="1">
       <c r="B17" s="120"/>
       <c r="C17" s="14"/>
       <c r="D17" s="11"/>
@@ -11083,7 +11477,7 @@
       <c r="I18" s="16"/>
       <c r="J18" s="15"/>
     </row>
-    <row r="19" spans="2:10" ht="31.05" customHeight="1">
+    <row r="19" spans="2:10" ht="31.15" customHeight="1">
       <c r="B19" s="18"/>
       <c r="C19" s="18"/>
       <c r="D19" s="18"/>
@@ -11122,22 +11516,22 @@
   </sheetPr>
   <dimension ref="B1:XDX20"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="23.88671875" defaultRowHeight="18.600000000000001" thickTop="1" thickBottom="1"/>
+  <sheetFormatPr defaultColWidth="23.875" defaultRowHeight="20.25" thickTop="1" thickBottom="1"/>
   <cols>
-    <col min="1" max="1" width="2.33203125" style="51" customWidth="1"/>
-    <col min="2" max="2" width="30.44140625" style="3" customWidth="1"/>
-    <col min="3" max="9" width="20.88671875" style="52" customWidth="1"/>
-    <col min="10" max="10" width="1.21875" style="3" customWidth="1"/>
-    <col min="11" max="11" width="23.88671875" style="91"/>
-    <col min="12" max="16352" width="23.88671875" style="3"/>
-    <col min="16353" max="16384" width="23.88671875" style="51"/>
+    <col min="1" max="1" width="2.375" style="51" customWidth="1"/>
+    <col min="2" max="2" width="30.5" style="3" customWidth="1"/>
+    <col min="3" max="9" width="20.875" style="52" customWidth="1"/>
+    <col min="10" max="10" width="1.25" style="3" customWidth="1"/>
+    <col min="11" max="11" width="23.875" style="91"/>
+    <col min="12" max="16352" width="23.875" style="3"/>
+    <col min="16353" max="16384" width="23.875" style="51"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:15" s="3" customFormat="1" ht="13.95" customHeight="1" thickTop="1" thickBot="1">
+    <row r="1" spans="2:15" s="3" customFormat="1" ht="13.9" customHeight="1" thickTop="1" thickBot="1">
       <c r="C1" s="52"/>
       <c r="D1" s="52"/>
       <c r="E1" s="52"/>
@@ -11181,9 +11575,9 @@
       <c r="N2" s="62"/>
       <c r="O2" s="62"/>
     </row>
-    <row r="3" spans="2:15" s="50" customFormat="1" ht="13.05" customHeight="1" thickTop="1" thickBot="1">
+    <row r="3" spans="2:15" s="50" customFormat="1" ht="13.15" customHeight="1" thickTop="1" thickBot="1">
       <c r="B3" s="117"/>
-      <c r="C3" s="169" t="s">
+      <c r="C3" s="133" t="s">
         <v>116</v>
       </c>
       <c r="D3" s="134"/>
@@ -11209,7 +11603,7 @@
       <c r="N3" s="64"/>
       <c r="O3" s="64"/>
     </row>
-    <row r="4" spans="2:15" s="3" customFormat="1" ht="16.05" customHeight="1" thickTop="1" thickBot="1">
+    <row r="4" spans="2:15" s="3" customFormat="1" ht="16.149999999999999" customHeight="1" thickTop="1" thickBot="1">
       <c r="B4" s="117"/>
       <c r="C4" s="134"/>
       <c r="D4" s="134"/>
@@ -11235,7 +11629,7 @@
       <c r="N4" s="66"/>
       <c r="O4" s="66"/>
     </row>
-    <row r="5" spans="2:15" s="3" customFormat="1" ht="73.05" customHeight="1" thickTop="1" thickBot="1">
+    <row r="5" spans="2:15" s="3" customFormat="1" ht="73.150000000000006" customHeight="1" thickTop="1" thickBot="1">
       <c r="B5" s="118"/>
       <c r="C5" s="134"/>
       <c r="D5" s="134"/>
@@ -11311,7 +11705,7 @@
       <c r="N7" s="70"/>
       <c r="O7" s="70"/>
     </row>
-    <row r="8" spans="2:15" s="3" customFormat="1" ht="73.05" customHeight="1" thickTop="1" thickBot="1">
+    <row r="8" spans="2:15" s="3" customFormat="1" ht="73.150000000000006" customHeight="1" thickTop="1" thickBot="1">
       <c r="B8" s="131"/>
       <c r="C8" s="115"/>
       <c r="D8" s="92" t="s">
@@ -11399,7 +11793,7 @@
       <c r="N10" s="70"/>
       <c r="O10" s="70"/>
     </row>
-    <row r="11" spans="2:15" s="3" customFormat="1" ht="73.05" customHeight="1" thickTop="1" thickBot="1">
+    <row r="11" spans="2:15" s="3" customFormat="1" ht="73.150000000000006" customHeight="1" thickTop="1" thickBot="1">
       <c r="B11" s="131"/>
       <c r="C11" s="93" t="s">
         <v>115</v>
@@ -11483,7 +11877,7 @@
       <c r="N13" s="70"/>
       <c r="O13" s="70"/>
     </row>
-    <row r="14" spans="2:15" s="3" customFormat="1" ht="73.05" customHeight="1" thickTop="1" thickBot="1">
+    <row r="14" spans="2:15" s="3" customFormat="1" ht="73.150000000000006" customHeight="1" thickTop="1" thickBot="1">
       <c r="B14" s="131"/>
       <c r="C14" s="93"/>
       <c r="D14" s="91"/>
@@ -11541,7 +11935,7 @@
       <c r="N16" s="70"/>
       <c r="O16" s="70"/>
     </row>
-    <row r="17" spans="2:15" s="3" customFormat="1" ht="73.05" customHeight="1" thickTop="1" thickBot="1">
+    <row r="17" spans="2:15" s="3" customFormat="1" ht="73.150000000000006" customHeight="1" thickTop="1" thickBot="1">
       <c r="B17" s="132"/>
       <c r="C17" s="93"/>
       <c r="D17" s="91"/>
@@ -11569,7 +11963,7 @@
       <c r="J18" s="24"/>
       <c r="K18" s="137"/>
     </row>
-    <row r="20" spans="2:15" ht="17.399999999999999"/>
+    <row r="20" spans="2:15" ht="18.75"/>
   </sheetData>
   <mergeCells count="5">
     <mergeCell ref="B2:B5"/>
@@ -11592,22 +11986,22 @@
   </sheetPr>
   <dimension ref="B1:XDY22"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="L8" sqref="L8"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="23.88671875" defaultRowHeight="18.600000000000001" thickTop="1" thickBottom="1"/>
+  <sheetFormatPr defaultColWidth="23.875" defaultRowHeight="20.25" thickTop="1" thickBottom="1"/>
   <cols>
-    <col min="1" max="1" width="2.33203125" style="51" customWidth="1"/>
-    <col min="2" max="2" width="30.44140625" style="3" customWidth="1"/>
-    <col min="3" max="9" width="20.88671875" style="52" customWidth="1"/>
-    <col min="10" max="10" width="1.21875" style="3" customWidth="1"/>
-    <col min="11" max="11" width="23.88671875" style="91"/>
-    <col min="12" max="16353" width="23.88671875" style="3"/>
-    <col min="16354" max="16384" width="23.88671875" style="51"/>
+    <col min="1" max="1" width="2.375" style="51" customWidth="1"/>
+    <col min="2" max="2" width="30.5" style="3" customWidth="1"/>
+    <col min="3" max="9" width="20.875" style="52" customWidth="1"/>
+    <col min="10" max="10" width="1.25" style="3" customWidth="1"/>
+    <col min="11" max="11" width="23.875" style="91"/>
+    <col min="12" max="16353" width="23.875" style="3"/>
+    <col min="16354" max="16384" width="23.875" style="51"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:16" s="3" customFormat="1" ht="13.95" customHeight="1" thickTop="1" thickBot="1">
+    <row r="1" spans="2:16" s="3" customFormat="1" ht="13.9" customHeight="1" thickTop="1" thickBot="1">
       <c r="C1" s="52"/>
       <c r="D1" s="52"/>
       <c r="E1" s="52"/>
@@ -11652,9 +12046,9 @@
       <c r="O2" s="62"/>
       <c r="P2" s="62"/>
     </row>
-    <row r="3" spans="2:16" s="50" customFormat="1" ht="13.05" customHeight="1" thickTop="1" thickBot="1">
+    <row r="3" spans="2:16" s="50" customFormat="1" ht="13.15" customHeight="1" thickTop="1" thickBot="1">
       <c r="B3" s="117"/>
-      <c r="C3" s="133" t="s">
+      <c r="C3" s="138" t="s">
         <v>35</v>
       </c>
       <c r="D3" s="134"/>
@@ -11681,7 +12075,7 @@
       <c r="O3" s="64"/>
       <c r="P3" s="64"/>
     </row>
-    <row r="4" spans="2:16" s="3" customFormat="1" ht="16.05" customHeight="1" thickTop="1" thickBot="1">
+    <row r="4" spans="2:16" s="3" customFormat="1" ht="16.149999999999999" customHeight="1" thickTop="1" thickBot="1">
       <c r="B4" s="117"/>
       <c r="C4" s="134"/>
       <c r="D4" s="134"/>
@@ -11708,7 +12102,7 @@
       <c r="O4" s="66"/>
       <c r="P4" s="66"/>
     </row>
-    <row r="5" spans="2:16" s="3" customFormat="1" ht="73.05" customHeight="1" thickTop="1" thickBot="1">
+    <row r="5" spans="2:16" s="3" customFormat="1" ht="73.150000000000006" customHeight="1" thickTop="1" thickBot="1">
       <c r="B5" s="118"/>
       <c r="C5" s="134"/>
       <c r="D5" s="134"/>
@@ -11787,7 +12181,7 @@
       <c r="O7" s="70"/>
       <c r="P7" s="70"/>
     </row>
-    <row r="8" spans="2:16" s="3" customFormat="1" ht="73.05" customHeight="1" thickTop="1" thickBot="1">
+    <row r="8" spans="2:16" s="3" customFormat="1" ht="73.150000000000006" customHeight="1" thickTop="1" thickBot="1">
       <c r="B8" s="131"/>
       <c r="C8" s="93"/>
       <c r="D8" s="91"/>
@@ -11870,7 +12264,7 @@
       <c r="O10" s="70"/>
       <c r="P10" s="70"/>
     </row>
-    <row r="11" spans="2:16" s="3" customFormat="1" ht="73.05" customHeight="1" thickTop="1" thickBot="1">
+    <row r="11" spans="2:16" s="3" customFormat="1" ht="73.150000000000006" customHeight="1" thickTop="1" thickBot="1">
       <c r="B11" s="131"/>
       <c r="C11" s="106" t="s">
         <v>110</v>
@@ -11885,9 +12279,6 @@
         <v>107</v>
       </c>
       <c r="G11" s="92" t="s">
-        <v>108</v>
-      </c>
-      <c r="H11" s="92" t="s">
         <v>108</v>
       </c>
       <c r="I11" s="106" t="s">
@@ -11963,7 +12354,7 @@
       <c r="O13" s="70"/>
       <c r="P13" s="70"/>
     </row>
-    <row r="14" spans="2:16" s="3" customFormat="1" ht="73.05" customHeight="1" thickTop="1" thickBot="1">
+    <row r="14" spans="2:16" s="3" customFormat="1" ht="73.150000000000006" customHeight="1" thickTop="1" thickBot="1">
       <c r="B14" s="131"/>
       <c r="C14" s="106" t="s">
         <v>109</v>
@@ -12038,7 +12429,7 @@
       <c r="O16" s="70"/>
       <c r="P16" s="70"/>
     </row>
-    <row r="17" spans="2:16" s="3" customFormat="1" ht="73.05" customHeight="1" thickTop="1" thickBot="1">
+    <row r="17" spans="2:16" s="3" customFormat="1" ht="73.150000000000006" customHeight="1" thickTop="1" thickBot="1">
       <c r="B17" s="132"/>
       <c r="C17" s="93"/>
       <c r="D17" s="91"/>
@@ -12133,17 +12524,17 @@
       <selection activeCell="L11" sqref="L11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="23.88671875" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="23.875" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="2.33203125" style="51" customWidth="1"/>
-    <col min="2" max="2" width="30.44140625" style="3" customWidth="1"/>
-    <col min="3" max="9" width="20.88671875" style="52" customWidth="1"/>
-    <col min="10" max="10" width="1.21875" style="3" customWidth="1"/>
-    <col min="11" max="16353" width="23.88671875" style="3"/>
-    <col min="16354" max="16384" width="23.88671875" style="51"/>
+    <col min="1" max="1" width="2.375" style="51" customWidth="1"/>
+    <col min="2" max="2" width="30.5" style="3" customWidth="1"/>
+    <col min="3" max="9" width="20.875" style="52" customWidth="1"/>
+    <col min="10" max="10" width="1.25" style="3" customWidth="1"/>
+    <col min="11" max="16353" width="23.875" style="3"/>
+    <col min="16354" max="16384" width="23.875" style="51"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:16" s="3" customFormat="1" ht="13.95" customHeight="1">
+    <row r="1" spans="2:16" s="3" customFormat="1" ht="13.9" customHeight="1">
       <c r="C1" s="52"/>
       <c r="D1" s="52"/>
       <c r="E1" s="52"/>
@@ -12153,7 +12544,7 @@
       <c r="I1" s="52"/>
     </row>
     <row r="2" spans="2:16" s="3" customFormat="1" ht="24" customHeight="1">
-      <c r="B2" s="138" t="s">
+      <c r="B2" s="139" t="s">
         <v>51</v>
       </c>
       <c r="C2" s="4">
@@ -12185,15 +12576,15 @@
       <c r="O2" s="62"/>
       <c r="P2" s="62"/>
     </row>
-    <row r="3" spans="2:16" s="50" customFormat="1" ht="13.05" customHeight="1">
-      <c r="B3" s="139"/>
-      <c r="C3" s="141" t="s">
+    <row r="3" spans="2:16" s="50" customFormat="1" ht="13.15" customHeight="1">
+      <c r="B3" s="140"/>
+      <c r="C3" s="142" t="s">
         <v>35</v>
       </c>
-      <c r="D3" s="142"/>
-      <c r="E3" s="142"/>
-      <c r="F3" s="142"/>
-      <c r="G3" s="142"/>
+      <c r="D3" s="143"/>
+      <c r="E3" s="143"/>
+      <c r="F3" s="143"/>
+      <c r="G3" s="143"/>
       <c r="H3" s="9">
         <v>44652</v>
       </c>
@@ -12208,13 +12599,13 @@
       <c r="O3" s="64"/>
       <c r="P3" s="64"/>
     </row>
-    <row r="4" spans="2:16" s="3" customFormat="1" ht="16.05" customHeight="1">
-      <c r="B4" s="139"/>
-      <c r="C4" s="142"/>
-      <c r="D4" s="142"/>
-      <c r="E4" s="142"/>
-      <c r="F4" s="142"/>
-      <c r="G4" s="142"/>
+    <row r="4" spans="2:16" s="3" customFormat="1" ht="16.149999999999999" customHeight="1">
+      <c r="B4" s="140"/>
+      <c r="C4" s="143"/>
+      <c r="D4" s="143"/>
+      <c r="E4" s="143"/>
+      <c r="F4" s="143"/>
+      <c r="G4" s="143"/>
       <c r="H4" s="10" t="s">
         <v>52</v>
       </c>
@@ -12229,13 +12620,13 @@
       <c r="O4" s="66"/>
       <c r="P4" s="66"/>
     </row>
-    <row r="5" spans="2:16" s="3" customFormat="1" ht="73.05" customHeight="1">
-      <c r="B5" s="140"/>
-      <c r="C5" s="142"/>
-      <c r="D5" s="142"/>
-      <c r="E5" s="142"/>
-      <c r="F5" s="142"/>
-      <c r="G5" s="142"/>
+    <row r="5" spans="2:16" s="3" customFormat="1" ht="73.150000000000006" customHeight="1">
+      <c r="B5" s="141"/>
+      <c r="C5" s="143"/>
+      <c r="D5" s="143"/>
+      <c r="E5" s="143"/>
+      <c r="F5" s="143"/>
+      <c r="G5" s="143"/>
       <c r="H5" s="57"/>
       <c r="I5" s="58"/>
       <c r="J5" s="67"/>
@@ -12308,7 +12699,7 @@
       <c r="O7" s="70"/>
       <c r="P7" s="70"/>
     </row>
-    <row r="8" spans="2:16" s="3" customFormat="1" ht="73.05" customHeight="1">
+    <row r="8" spans="2:16" s="3" customFormat="1" ht="73.150000000000006" customHeight="1">
       <c r="B8" s="119"/>
       <c r="C8" s="58"/>
       <c r="D8" s="59"/>
@@ -12387,7 +12778,7 @@
       <c r="O10" s="70"/>
       <c r="P10" s="70"/>
     </row>
-    <row r="11" spans="2:16" s="3" customFormat="1" ht="73.05" customHeight="1">
+    <row r="11" spans="2:16" s="3" customFormat="1" ht="73.150000000000006" customHeight="1">
       <c r="B11" s="119"/>
       <c r="C11" s="58"/>
       <c r="D11" s="59"/>
@@ -12466,7 +12857,7 @@
       <c r="O13" s="70"/>
       <c r="P13" s="70"/>
     </row>
-    <row r="14" spans="2:16" s="3" customFormat="1" ht="73.05" customHeight="1">
+    <row r="14" spans="2:16" s="3" customFormat="1" ht="73.150000000000006" customHeight="1">
       <c r="B14" s="119"/>
       <c r="C14" s="58"/>
       <c r="D14" s="59"/>
@@ -12545,7 +12936,7 @@
       <c r="O16" s="70"/>
       <c r="P16" s="70"/>
     </row>
-    <row r="17" spans="2:16" s="3" customFormat="1" ht="73.05" customHeight="1">
+    <row r="17" spans="2:16" s="3" customFormat="1" ht="73.150000000000006" customHeight="1">
       <c r="B17" s="120"/>
       <c r="C17" s="58"/>
       <c r="D17" s="59"/>
@@ -12633,18 +13024,18 @@
       <selection activeCell="B6" sqref="B6:B17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="23.88671875" defaultRowHeight="27" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="23.875" defaultRowHeight="27" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="2.33203125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="30.44140625" style="3" customWidth="1"/>
-    <col min="3" max="9" width="20.88671875" style="1" customWidth="1"/>
-    <col min="10" max="10" width="1.21875" style="1" customWidth="1"/>
-    <col min="11" max="16384" width="23.88671875" style="1"/>
+    <col min="1" max="1" width="2.375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="30.5" style="3" customWidth="1"/>
+    <col min="3" max="9" width="20.875" style="1" customWidth="1"/>
+    <col min="10" max="10" width="1.25" style="1" customWidth="1"/>
+    <col min="11" max="16384" width="23.875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:10" ht="13.95" customHeight="1"/>
+    <row r="1" spans="2:10" ht="13.9" customHeight="1"/>
     <row r="2" spans="2:10" ht="24" customHeight="1">
-      <c r="B2" s="138" t="s">
+      <c r="B2" s="139" t="s">
         <v>55</v>
       </c>
       <c r="C2" s="4">
@@ -12670,8 +13061,8 @@
       </c>
       <c r="J2" s="20"/>
     </row>
-    <row r="3" spans="2:10" s="2" customFormat="1" ht="13.05" customHeight="1">
-      <c r="B3" s="139"/>
+    <row r="3" spans="2:10" s="2" customFormat="1" ht="13.15" customHeight="1">
+      <c r="B3" s="140"/>
       <c r="C3" s="12">
         <v>44682</v>
       </c>
@@ -12695,8 +13086,8 @@
       </c>
       <c r="J3" s="21"/>
     </row>
-    <row r="4" spans="2:10" ht="16.05" customHeight="1">
-      <c r="B4" s="139"/>
+    <row r="4" spans="2:10" ht="16.149999999999999" customHeight="1">
+      <c r="B4" s="140"/>
       <c r="C4" s="13" t="s">
         <v>56</v>
       </c>
@@ -12720,8 +13111,8 @@
       </c>
       <c r="J4" s="22"/>
     </row>
-    <row r="5" spans="2:10" ht="73.05" customHeight="1">
-      <c r="B5" s="140"/>
+    <row r="5" spans="2:10" ht="73.150000000000006" customHeight="1">
+      <c r="B5" s="141"/>
       <c r="C5" s="14"/>
       <c r="D5" s="11"/>
       <c r="E5" s="11"/>
@@ -12781,7 +13172,7 @@
       </c>
       <c r="J7" s="22"/>
     </row>
-    <row r="8" spans="2:10" ht="73.05" customHeight="1">
+    <row r="8" spans="2:10" ht="73.150000000000006" customHeight="1">
       <c r="B8" s="119"/>
       <c r="C8" s="14"/>
       <c r="D8" s="11"/>
@@ -12842,7 +13233,7 @@
       </c>
       <c r="J10" s="22"/>
     </row>
-    <row r="11" spans="2:10" ht="73.05" customHeight="1">
+    <row r="11" spans="2:10" ht="73.150000000000006" customHeight="1">
       <c r="B11" s="119"/>
       <c r="C11" s="14"/>
       <c r="D11" s="11"/>
@@ -12903,7 +13294,7 @@
       </c>
       <c r="J13" s="22"/>
     </row>
-    <row r="14" spans="2:10" ht="73.05" customHeight="1">
+    <row r="14" spans="2:10" ht="73.150000000000006" customHeight="1">
       <c r="B14" s="119"/>
       <c r="C14" s="14"/>
       <c r="D14" s="11"/>
@@ -12925,12 +13316,12 @@
       <c r="E15" s="9">
         <v>31</v>
       </c>
-      <c r="F15" s="142" t="s">
+      <c r="F15" s="143" t="s">
         <v>35</v>
       </c>
-      <c r="G15" s="142"/>
-      <c r="H15" s="142"/>
-      <c r="I15" s="142"/>
+      <c r="G15" s="143"/>
+      <c r="H15" s="143"/>
+      <c r="I15" s="143"/>
       <c r="J15" s="21"/>
     </row>
     <row r="16" spans="2:10" ht="15" customHeight="1">
@@ -12944,13 +13335,13 @@
       <c r="E16" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="F16" s="142"/>
-      <c r="G16" s="142"/>
-      <c r="H16" s="142"/>
-      <c r="I16" s="142"/>
+      <c r="F16" s="143"/>
+      <c r="G16" s="143"/>
+      <c r="H16" s="143"/>
+      <c r="I16" s="143"/>
       <c r="J16" s="22"/>
     </row>
-    <row r="17" spans="2:10" ht="73.05" customHeight="1">
+    <row r="17" spans="2:10" ht="73.150000000000006" customHeight="1">
       <c r="B17" s="120"/>
       <c r="C17" s="27" t="s">
         <v>35</v>
@@ -12959,10 +13350,10 @@
         <v>35</v>
       </c>
       <c r="E17" s="28"/>
-      <c r="F17" s="142"/>
-      <c r="G17" s="142"/>
-      <c r="H17" s="142"/>
-      <c r="I17" s="142"/>
+      <c r="F17" s="143"/>
+      <c r="G17" s="143"/>
+      <c r="H17" s="143"/>
+      <c r="I17" s="143"/>
       <c r="J17" s="22"/>
     </row>
     <row r="18" spans="2:10" s="3" customFormat="1" ht="9" customHeight="1">
@@ -13018,18 +13409,18 @@
       <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="23.88671875" defaultRowHeight="27" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="23.875" defaultRowHeight="27" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="2.33203125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="30.44140625" style="3" customWidth="1"/>
-    <col min="3" max="9" width="20.88671875" style="1" customWidth="1"/>
-    <col min="10" max="10" width="1.21875" style="1" customWidth="1"/>
-    <col min="11" max="16384" width="23.88671875" style="1"/>
+    <col min="1" max="1" width="2.375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="30.5" style="3" customWidth="1"/>
+    <col min="3" max="9" width="20.875" style="1" customWidth="1"/>
+    <col min="10" max="10" width="1.25" style="1" customWidth="1"/>
+    <col min="11" max="16384" width="23.875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:10" ht="13.95" customHeight="1"/>
+    <row r="1" spans="2:10" ht="13.9" customHeight="1"/>
     <row r="2" spans="2:10" ht="24" customHeight="1">
-      <c r="B2" s="138" t="s">
+      <c r="B2" s="139" t="s">
         <v>62</v>
       </c>
       <c r="C2" s="4">
@@ -13055,13 +13446,13 @@
       </c>
       <c r="J2" s="20"/>
     </row>
-    <row r="3" spans="2:10" s="2" customFormat="1" ht="13.05" customHeight="1">
-      <c r="B3" s="139"/>
-      <c r="C3" s="143" t="s">
+    <row r="3" spans="2:10" s="2" customFormat="1" ht="13.15" customHeight="1">
+      <c r="B3" s="140"/>
+      <c r="C3" s="144" t="s">
         <v>35</v>
       </c>
-      <c r="D3" s="144"/>
-      <c r="E3" s="145"/>
+      <c r="D3" s="145"/>
+      <c r="E3" s="146"/>
       <c r="F3" s="9">
         <v>44713</v>
       </c>
@@ -13076,11 +13467,11 @@
       </c>
       <c r="J3" s="21"/>
     </row>
-    <row r="4" spans="2:10" ht="16.05" customHeight="1">
-      <c r="B4" s="139"/>
-      <c r="C4" s="146"/>
-      <c r="D4" s="147"/>
-      <c r="E4" s="148"/>
+    <row r="4" spans="2:10" ht="16.149999999999999" customHeight="1">
+      <c r="B4" s="140"/>
+      <c r="C4" s="147"/>
+      <c r="D4" s="148"/>
+      <c r="E4" s="149"/>
       <c r="F4" s="10" t="s">
         <v>63</v>
       </c>
@@ -13095,11 +13486,11 @@
       </c>
       <c r="J4" s="22"/>
     </row>
-    <row r="5" spans="2:10" ht="73.05" customHeight="1">
-      <c r="B5" s="140"/>
-      <c r="C5" s="149"/>
-      <c r="D5" s="150"/>
-      <c r="E5" s="151"/>
+    <row r="5" spans="2:10" ht="73.150000000000006" customHeight="1">
+      <c r="B5" s="141"/>
+      <c r="C5" s="150"/>
+      <c r="D5" s="151"/>
+      <c r="E5" s="152"/>
       <c r="F5" s="11"/>
       <c r="G5" s="11"/>
       <c r="H5" s="11"/>
@@ -13156,7 +13547,7 @@
       </c>
       <c r="J7" s="22"/>
     </row>
-    <row r="8" spans="2:10" ht="73.05" customHeight="1">
+    <row r="8" spans="2:10" ht="73.150000000000006" customHeight="1">
       <c r="B8" s="119"/>
       <c r="C8" s="14"/>
       <c r="D8" s="11"/>
@@ -13217,7 +13608,7 @@
       </c>
       <c r="J10" s="22"/>
     </row>
-    <row r="11" spans="2:10" ht="73.05" customHeight="1">
+    <row r="11" spans="2:10" ht="73.150000000000006" customHeight="1">
       <c r="B11" s="119"/>
       <c r="C11" s="14"/>
       <c r="D11" s="11"/>
@@ -13278,7 +13669,7 @@
       </c>
       <c r="J13" s="22"/>
     </row>
-    <row r="14" spans="2:10" ht="73.05" customHeight="1">
+    <row r="14" spans="2:10" ht="73.150000000000006" customHeight="1">
       <c r="B14" s="119"/>
       <c r="C14" s="14"/>
       <c r="D14" s="11"/>
@@ -13306,10 +13697,10 @@
       <c r="G15" s="9">
         <v>44742</v>
       </c>
-      <c r="H15" s="142" t="s">
+      <c r="H15" s="143" t="s">
         <v>35</v>
       </c>
-      <c r="I15" s="142"/>
+      <c r="I15" s="143"/>
       <c r="J15" s="21"/>
     </row>
     <row r="16" spans="2:10" ht="15" customHeight="1">
@@ -13329,11 +13720,11 @@
       <c r="G16" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="H16" s="142"/>
-      <c r="I16" s="142"/>
+      <c r="H16" s="143"/>
+      <c r="I16" s="143"/>
       <c r="J16" s="22"/>
     </row>
-    <row r="17" spans="2:10" ht="73.05" customHeight="1">
+    <row r="17" spans="2:10" ht="73.150000000000006" customHeight="1">
       <c r="B17" s="120"/>
       <c r="C17" s="27" t="s">
         <v>35</v>
@@ -13348,8 +13739,8 @@
       <c r="G17" s="28" t="s">
         <v>35</v>
       </c>
-      <c r="H17" s="142"/>
-      <c r="I17" s="142"/>
+      <c r="H17" s="143"/>
+      <c r="I17" s="143"/>
       <c r="J17" s="22"/>
     </row>
     <row r="18" spans="2:10" s="3" customFormat="1" ht="9" customHeight="1">
@@ -13404,18 +13795,18 @@
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="80" zoomScaleNormal="80" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="23.88671875" defaultRowHeight="27" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="23.875" defaultRowHeight="27" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="2.33203125" style="29" customWidth="1"/>
-    <col min="2" max="2" width="30.44140625" style="3" customWidth="1"/>
-    <col min="3" max="9" width="20.88671875" style="29" customWidth="1"/>
-    <col min="10" max="10" width="1.21875" style="29" customWidth="1"/>
-    <col min="11" max="16384" width="23.88671875" style="29"/>
+    <col min="1" max="1" width="2.375" style="29" customWidth="1"/>
+    <col min="2" max="2" width="30.5" style="3" customWidth="1"/>
+    <col min="3" max="9" width="20.875" style="29" customWidth="1"/>
+    <col min="10" max="10" width="1.25" style="29" customWidth="1"/>
+    <col min="11" max="16384" width="23.875" style="29"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:11" ht="13.95" customHeight="1"/>
+    <row r="1" spans="2:11" ht="13.9" customHeight="1"/>
     <row r="2" spans="2:11" ht="24" customHeight="1">
-      <c r="B2" s="138" t="s">
+      <c r="B2" s="139" t="s">
         <v>69</v>
       </c>
       <c r="C2" s="31">
@@ -13441,15 +13832,15 @@
       </c>
       <c r="J2" s="46"/>
     </row>
-    <row r="3" spans="2:11" s="30" customFormat="1" ht="13.05" customHeight="1">
-      <c r="B3" s="139"/>
-      <c r="C3" s="152" t="s">
+    <row r="3" spans="2:11" s="30" customFormat="1" ht="13.15" customHeight="1">
+      <c r="B3" s="140"/>
+      <c r="C3" s="153" t="s">
         <v>35</v>
       </c>
-      <c r="D3" s="153"/>
-      <c r="E3" s="153"/>
-      <c r="F3" s="153"/>
-      <c r="G3" s="153"/>
+      <c r="D3" s="154"/>
+      <c r="E3" s="154"/>
+      <c r="F3" s="154"/>
+      <c r="G3" s="154"/>
       <c r="H3" s="36">
         <v>44743</v>
       </c>
@@ -13458,13 +13849,13 @@
       </c>
       <c r="J3" s="47"/>
     </row>
-    <row r="4" spans="2:11" ht="16.05" customHeight="1">
-      <c r="B4" s="139"/>
-      <c r="C4" s="153"/>
-      <c r="D4" s="153"/>
-      <c r="E4" s="153"/>
-      <c r="F4" s="153"/>
-      <c r="G4" s="153"/>
+    <row r="4" spans="2:11" ht="16.149999999999999" customHeight="1">
+      <c r="B4" s="140"/>
+      <c r="C4" s="154"/>
+      <c r="D4" s="154"/>
+      <c r="E4" s="154"/>
+      <c r="F4" s="154"/>
+      <c r="G4" s="154"/>
       <c r="H4" s="37" t="s">
         <v>70</v>
       </c>
@@ -13473,13 +13864,13 @@
       </c>
       <c r="J4" s="48"/>
     </row>
-    <row r="5" spans="2:11" ht="73.05" customHeight="1">
-      <c r="B5" s="140"/>
-      <c r="C5" s="153"/>
-      <c r="D5" s="153"/>
-      <c r="E5" s="153"/>
-      <c r="F5" s="153"/>
-      <c r="G5" s="153"/>
+    <row r="5" spans="2:11" ht="73.150000000000006" customHeight="1">
+      <c r="B5" s="141"/>
+      <c r="C5" s="154"/>
+      <c r="D5" s="154"/>
+      <c r="E5" s="154"/>
+      <c r="F5" s="154"/>
+      <c r="G5" s="154"/>
       <c r="H5" s="38"/>
       <c r="I5" s="41"/>
       <c r="J5" s="48"/>
@@ -13534,7 +13925,7 @@
       </c>
       <c r="J7" s="48"/>
     </row>
-    <row r="8" spans="2:11" ht="73.05" customHeight="1">
+    <row r="8" spans="2:11" ht="73.150000000000006" customHeight="1">
       <c r="B8" s="119"/>
       <c r="C8" s="41"/>
       <c r="D8" s="38"/>
@@ -13596,7 +13987,7 @@
       </c>
       <c r="J10" s="48"/>
     </row>
-    <row r="11" spans="2:11" ht="73.05" customHeight="1">
+    <row r="11" spans="2:11" ht="73.150000000000006" customHeight="1">
       <c r="B11" s="119"/>
       <c r="C11" s="41"/>
       <c r="D11" s="38"/>
@@ -13657,7 +14048,7 @@
       </c>
       <c r="J13" s="48"/>
     </row>
-    <row r="14" spans="2:11" ht="73.05" customHeight="1">
+    <row r="14" spans="2:11" ht="73.150000000000006" customHeight="1">
       <c r="B14" s="119"/>
       <c r="C14" s="41"/>
       <c r="D14" s="38"/>
@@ -13718,7 +14109,7 @@
       </c>
       <c r="J16" s="48"/>
     </row>
-    <row r="17" spans="2:10" ht="73.05" customHeight="1">
+    <row r="17" spans="2:10" ht="73.150000000000006" customHeight="1">
       <c r="B17" s="120"/>
       <c r="C17" s="42"/>
       <c r="D17" s="43" t="s">
@@ -13790,18 +14181,18 @@
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="80" zoomScaleNormal="80" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="23.88671875" defaultRowHeight="27" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="23.875" defaultRowHeight="27" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="2.33203125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="30.44140625" style="3" customWidth="1"/>
-    <col min="3" max="9" width="20.88671875" style="1" customWidth="1"/>
-    <col min="10" max="10" width="1.21875" style="1" customWidth="1"/>
-    <col min="11" max="16384" width="23.88671875" style="1"/>
+    <col min="1" max="1" width="2.375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="30.5" style="3" customWidth="1"/>
+    <col min="3" max="9" width="20.875" style="1" customWidth="1"/>
+    <col min="10" max="10" width="1.25" style="1" customWidth="1"/>
+    <col min="11" max="16384" width="23.875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:10" ht="13.95" customHeight="1"/>
+    <row r="1" spans="2:10" ht="13.9" customHeight="1"/>
     <row r="2" spans="2:10" ht="24" customHeight="1">
-      <c r="B2" s="138" t="s">
+      <c r="B2" s="139" t="s">
         <v>74</v>
       </c>
       <c r="C2" s="4">
@@ -13827,9 +14218,9 @@
       </c>
       <c r="J2" s="20"/>
     </row>
-    <row r="3" spans="2:10" s="2" customFormat="1" ht="13.05" customHeight="1">
-      <c r="B3" s="139"/>
-      <c r="C3" s="154" t="s">
+    <row r="3" spans="2:10" s="2" customFormat="1" ht="13.15" customHeight="1">
+      <c r="B3" s="140"/>
+      <c r="C3" s="155" t="s">
         <v>35</v>
       </c>
       <c r="D3" s="9">
@@ -13852,9 +14243,9 @@
       </c>
       <c r="J3" s="21"/>
     </row>
-    <row r="4" spans="2:10" ht="16.05" customHeight="1">
-      <c r="B4" s="139"/>
-      <c r="C4" s="155"/>
+    <row r="4" spans="2:10" ht="16.149999999999999" customHeight="1">
+      <c r="B4" s="140"/>
+      <c r="C4" s="156"/>
       <c r="D4" s="10" t="s">
         <v>75</v>
       </c>
@@ -13875,9 +14266,9 @@
       </c>
       <c r="J4" s="22"/>
     </row>
-    <row r="5" spans="2:10" ht="73.05" customHeight="1">
-      <c r="B5" s="140"/>
-      <c r="C5" s="156"/>
+    <row r="5" spans="2:10" ht="73.150000000000006" customHeight="1">
+      <c r="B5" s="141"/>
+      <c r="C5" s="157"/>
       <c r="D5" s="11"/>
       <c r="E5" s="11"/>
       <c r="F5" s="11"/>
@@ -13936,7 +14327,7 @@
       </c>
       <c r="J7" s="22"/>
     </row>
-    <row r="8" spans="2:10" ht="73.05" customHeight="1">
+    <row r="8" spans="2:10" ht="73.150000000000006" customHeight="1">
       <c r="B8" s="119"/>
       <c r="C8" s="14"/>
       <c r="D8" s="11"/>
@@ -13997,7 +14388,7 @@
       </c>
       <c r="J10" s="22"/>
     </row>
-    <row r="11" spans="2:10" ht="73.05" customHeight="1">
+    <row r="11" spans="2:10" ht="73.150000000000006" customHeight="1">
       <c r="B11" s="119"/>
       <c r="C11" s="14"/>
       <c r="D11" s="11"/>
@@ -14058,7 +14449,7 @@
       </c>
       <c r="J13" s="22"/>
     </row>
-    <row r="14" spans="2:10" ht="73.05" customHeight="1">
+    <row r="14" spans="2:10" ht="73.150000000000006" customHeight="1">
       <c r="B14" s="119"/>
       <c r="C14" s="14"/>
       <c r="D14" s="11"/>
@@ -14083,11 +14474,11 @@
       <c r="F15" s="9">
         <v>44804</v>
       </c>
-      <c r="G15" s="142" t="s">
+      <c r="G15" s="143" t="s">
         <v>35</v>
       </c>
-      <c r="H15" s="142"/>
-      <c r="I15" s="142"/>
+      <c r="H15" s="143"/>
+      <c r="I15" s="143"/>
       <c r="J15" s="21"/>
     </row>
     <row r="16" spans="2:10" ht="15" customHeight="1">
@@ -14104,12 +14495,12 @@
       <c r="F16" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="G16" s="142"/>
-      <c r="H16" s="142"/>
-      <c r="I16" s="142"/>
+      <c r="G16" s="143"/>
+      <c r="H16" s="143"/>
+      <c r="I16" s="143"/>
       <c r="J16" s="22"/>
     </row>
-    <row r="17" spans="2:10" ht="73.05" customHeight="1">
+    <row r="17" spans="2:10" ht="73.150000000000006" customHeight="1">
       <c r="B17" s="120"/>
       <c r="C17" s="27" t="s">
         <v>35</v>
@@ -14121,9 +14512,9 @@
       <c r="F17" s="28" t="s">
         <v>35</v>
       </c>
-      <c r="G17" s="142"/>
-      <c r="H17" s="142"/>
-      <c r="I17" s="142"/>
+      <c r="G17" s="143"/>
+      <c r="H17" s="143"/>
+      <c r="I17" s="143"/>
       <c r="J17" s="22"/>
     </row>
     <row r="18" spans="2:10" s="3" customFormat="1" ht="9" customHeight="1">
@@ -14178,18 +14569,18 @@
   <sheetViews>
     <sheetView showGridLines="0" topLeftCell="A5" zoomScale="80" zoomScaleNormal="80" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="23.88671875" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="23.875" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="2.33203125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="30.44140625" style="3" customWidth="1"/>
-    <col min="3" max="9" width="20.88671875" style="1" customWidth="1"/>
-    <col min="10" max="10" width="1.21875" style="1" customWidth="1"/>
-    <col min="11" max="16384" width="23.88671875" style="1"/>
+    <col min="1" max="1" width="2.375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="30.5" style="3" customWidth="1"/>
+    <col min="3" max="9" width="20.875" style="1" customWidth="1"/>
+    <col min="10" max="10" width="1.25" style="1" customWidth="1"/>
+    <col min="11" max="16384" width="23.875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:10" ht="13.95" customHeight="1"/>
+    <row r="1" spans="2:10" ht="13.9" customHeight="1"/>
     <row r="2" spans="2:10" ht="24" customHeight="1">
-      <c r="B2" s="157" t="s">
+      <c r="B2" s="158" t="s">
         <v>80</v>
       </c>
       <c r="C2" s="4">
@@ -14215,14 +14606,14 @@
       </c>
       <c r="J2" s="20"/>
     </row>
-    <row r="3" spans="2:10" s="2" customFormat="1" ht="13.05" customHeight="1">
-      <c r="B3" s="158"/>
-      <c r="C3" s="141" t="s">
+    <row r="3" spans="2:10" s="2" customFormat="1" ht="13.15" customHeight="1">
+      <c r="B3" s="159"/>
+      <c r="C3" s="142" t="s">
         <v>35</v>
       </c>
-      <c r="D3" s="142"/>
-      <c r="E3" s="142"/>
-      <c r="F3" s="142"/>
+      <c r="D3" s="143"/>
+      <c r="E3" s="143"/>
+      <c r="F3" s="143"/>
       <c r="G3" s="9">
         <v>44805</v>
       </c>
@@ -14234,12 +14625,12 @@
       </c>
       <c r="J3" s="21"/>
     </row>
-    <row r="4" spans="2:10" ht="16.05" customHeight="1">
-      <c r="B4" s="158"/>
-      <c r="C4" s="142"/>
-      <c r="D4" s="142"/>
-      <c r="E4" s="142"/>
-      <c r="F4" s="142"/>
+    <row r="4" spans="2:10" ht="16.149999999999999" customHeight="1">
+      <c r="B4" s="159"/>
+      <c r="C4" s="143"/>
+      <c r="D4" s="143"/>
+      <c r="E4" s="143"/>
+      <c r="F4" s="143"/>
       <c r="G4" s="10" t="s">
         <v>9</v>
       </c>
@@ -14251,12 +14642,12 @@
       </c>
       <c r="J4" s="22"/>
     </row>
-    <row r="5" spans="2:10" ht="73.05" customHeight="1">
-      <c r="B5" s="159"/>
-      <c r="C5" s="142"/>
-      <c r="D5" s="142"/>
-      <c r="E5" s="142"/>
-      <c r="F5" s="142"/>
+    <row r="5" spans="2:10" ht="73.150000000000006" customHeight="1">
+      <c r="B5" s="160"/>
+      <c r="C5" s="143"/>
+      <c r="D5" s="143"/>
+      <c r="E5" s="143"/>
+      <c r="F5" s="143"/>
       <c r="G5" s="11"/>
       <c r="H5" s="11"/>
       <c r="I5" s="14"/>
@@ -14312,7 +14703,7 @@
       </c>
       <c r="J7" s="22"/>
     </row>
-    <row r="8" spans="2:10" ht="73.05" customHeight="1">
+    <row r="8" spans="2:10" ht="73.150000000000006" customHeight="1">
       <c r="B8" s="119"/>
       <c r="C8" s="14"/>
       <c r="D8" s="11"/>
@@ -14373,7 +14764,7 @@
       </c>
       <c r="J10" s="22"/>
     </row>
-    <row r="11" spans="2:10" ht="73.05" customHeight="1">
+    <row r="11" spans="2:10" ht="73.150000000000006" customHeight="1">
       <c r="B11" s="119"/>
       <c r="C11" s="14"/>
       <c r="D11" s="11"/>
@@ -14434,7 +14825,7 @@
       </c>
       <c r="J13" s="22"/>
     </row>
-    <row r="14" spans="2:10" ht="73.05" customHeight="1">
+    <row r="14" spans="2:10" ht="73.150000000000006" customHeight="1">
       <c r="B14" s="119"/>
       <c r="C14" s="14"/>
       <c r="D14" s="11"/>
@@ -14465,7 +14856,7 @@
       <c r="H15" s="9">
         <v>44834</v>
       </c>
-      <c r="I15" s="142" t="s">
+      <c r="I15" s="143" t="s">
         <v>35</v>
       </c>
       <c r="J15" s="21"/>
@@ -14490,10 +14881,10 @@
       <c r="H16" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="I16" s="142"/>
+      <c r="I16" s="143"/>
       <c r="J16" s="22"/>
     </row>
-    <row r="17" spans="2:10" ht="73.05" customHeight="1">
+    <row r="17" spans="2:10" ht="73.150000000000006" customHeight="1">
       <c r="B17" s="120"/>
       <c r="C17" s="14"/>
       <c r="D17" s="11"/>
@@ -14501,7 +14892,7 @@
       <c r="F17" s="11"/>
       <c r="G17" s="11"/>
       <c r="H17" s="11"/>
-      <c r="I17" s="142"/>
+      <c r="I17" s="143"/>
       <c r="J17" s="22"/>
     </row>
     <row r="18" spans="2:10" s="3" customFormat="1" ht="9" customHeight="1">

--- a/draft/日历.xlsx
+++ b/draft/日历.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24701"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24729"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\note\draft\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2013E96C-7864-48DD-AB74-EE596939BF05}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4D019DC-38F2-4E0F-93E2-BF8C6F1EEC6C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="448" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="451" uniqueCount="117">
   <si>
     <t>二</t>
   </si>
@@ -443,14 +443,6 @@
     <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
-    <t>面试</t>
-    <phoneticPr fontId="24" type="noConversion"/>
-  </si>
-  <si>
-    <t>准备，约面试</t>
-    <phoneticPr fontId="24" type="noConversion"/>
-  </si>
-  <si>
     <t>面经</t>
     <phoneticPr fontId="24" type="noConversion"/>
   </si>
@@ -477,6 +469,14 @@
   </si>
   <si>
     <t>leetcode 每天中午</t>
+    <phoneticPr fontId="24" type="noConversion"/>
+  </si>
+  <si>
+    <t>准备，面试</t>
+    <phoneticPr fontId="24" type="noConversion"/>
+  </si>
+  <si>
+    <t>4.14.2，准备，面试</t>
     <phoneticPr fontId="24" type="noConversion"/>
   </si>
 </sst>
@@ -4954,15 +4954,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
+      <xdr:col>3</xdr:col>
       <xdr:colOff>533400</xdr:colOff>
-      <xdr:row>10</xdr:row>
+      <xdr:row>16</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>5</xdr:col>
+      <xdr:col>3</xdr:col>
       <xdr:colOff>876300</xdr:colOff>
-      <xdr:row>10</xdr:row>
+      <xdr:row>16</xdr:row>
       <xdr:rowOff>349039</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -5967,16 +5967,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>495300</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>257175</xdr:rowOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>983456</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>838200</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>596689</xdr:rowOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1326356</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>406189</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -5991,7 +5991,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7029450" y="3705225"/>
+          <a:off x="3483769" y="6150769"/>
           <a:ext cx="342900" cy="339514"/>
         </a:xfrm>
         <a:prstGeom prst="star5">
@@ -7159,6 +7159,203 @@
         <a:xfrm>
           <a:off x="11191875" y="1964531"/>
           <a:ext cx="342900" cy="371476"/>
+        </a:xfrm>
+        <a:prstGeom prst="star5">
+          <a:avLst>
+            <a:gd name="adj" fmla="val 25087"/>
+            <a:gd name="hf" fmla="val 105146"/>
+            <a:gd name="vf" fmla="val 110557"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:gradFill>
+          <a:gsLst>
+            <a:gs pos="100000">
+              <a:schemeClr val="accent6">
+                <a:lumMod val="60000"/>
+                <a:lumOff val="40000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="0">
+              <a:srgbClr val="0CA451"/>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="100000" t="100000"/>
+          </a:path>
+          <a:tileRect r="-100000" b="-100000"/>
+        </a:gradFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst>
+          <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+            <a:schemeClr val="tx1">
+              <a:lumMod val="50000"/>
+              <a:lumOff val="50000"/>
+              <a:alpha val="40000"/>
+            </a:schemeClr>
+          </a:outerShdw>
+        </a:effectLst>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="t" anchorCtr="0" forceAA="0" compatLnSpc="1">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle>
+          <a:defPPr>
+            <a:defRPr lang="zh-CN">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+            </a:defRPr>
+          </a:defPPr>
+          <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr algn="l">
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>495300</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>257175</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>838200</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>596689</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="11" name="五角星 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{99E367E7-B147-4846-870A-FE5D431A24D4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7781925" y="3721894"/>
+          <a:ext cx="342900" cy="339514"/>
         </a:xfrm>
         <a:prstGeom prst="star5">
           <a:avLst>
@@ -11516,8 +11713,8 @@
   </sheetPr>
   <dimension ref="B1:XDX20"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="I11" sqref="I11"/>
+    <sheetView showGridLines="0" topLeftCell="A10" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="E15" sqref="E15:I17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="23.875" defaultRowHeight="20.25" thickTop="1" thickBottom="1"/>
@@ -11540,7 +11737,7 @@
       <c r="H1" s="52"/>
       <c r="I1" s="52"/>
       <c r="K1" s="135" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
     <row r="2" spans="2:15" s="3" customFormat="1" ht="24" customHeight="1" thickTop="1" thickBot="1">
@@ -11578,7 +11775,7 @@
     <row r="3" spans="2:15" s="50" customFormat="1" ht="13.15" customHeight="1" thickTop="1" thickBot="1">
       <c r="B3" s="117"/>
       <c r="C3" s="133" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="D3" s="134"/>
       <c r="E3" s="108">
@@ -11709,22 +11906,22 @@
       <c r="B8" s="131"/>
       <c r="C8" s="115"/>
       <c r="D8" s="92" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="E8" s="92" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="F8" s="92" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="G8" s="92" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="H8" s="92" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="I8" s="93" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="J8" s="71"/>
       <c r="K8" s="136"/>
@@ -11796,15 +11993,12 @@
     <row r="11" spans="2:15" s="3" customFormat="1" ht="73.150000000000006" customHeight="1" thickTop="1" thickBot="1">
       <c r="B11" s="131"/>
       <c r="C11" s="93" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="D11" s="93" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="E11" s="93" t="s">
-        <v>115</v>
-      </c>
-      <c r="F11" s="114" t="s">
         <v>113</v>
       </c>
       <c r="G11" s="91"/>
@@ -11938,7 +12132,9 @@
     <row r="17" spans="2:15" s="3" customFormat="1" ht="73.150000000000006" customHeight="1" thickTop="1" thickBot="1">
       <c r="B17" s="132"/>
       <c r="C17" s="93"/>
-      <c r="D17" s="91"/>
+      <c r="D17" s="114" t="s">
+        <v>111</v>
+      </c>
       <c r="E17" s="134"/>
       <c r="F17" s="134"/>
       <c r="G17" s="134"/>
@@ -11986,8 +12182,8 @@
   </sheetPr>
   <dimension ref="B1:XDY22"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A4" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="23.875" defaultRowHeight="20.25" thickTop="1" thickBottom="1"/>
@@ -12009,9 +12205,7 @@
       <c r="G1" s="52"/>
       <c r="H1" s="52"/>
       <c r="I1" s="52"/>
-      <c r="K1" s="135" t="s">
-        <v>111</v>
-      </c>
+      <c r="K1" s="135"/>
     </row>
     <row r="2" spans="2:16" s="3" customFormat="1" ht="24" customHeight="1" thickTop="1" thickBot="1">
       <c r="B2" s="116" t="s">
@@ -12189,9 +12383,6 @@
       <c r="F8" s="91"/>
       <c r="G8" s="91"/>
       <c r="H8" s="114" t="s">
-        <v>112</v>
-      </c>
-      <c r="I8" s="106" t="s">
         <v>110</v>
       </c>
       <c r="J8" s="71"/>
@@ -12266,24 +12457,11 @@
     </row>
     <row r="11" spans="2:16" s="3" customFormat="1" ht="73.150000000000006" customHeight="1" thickTop="1" thickBot="1">
       <c r="B11" s="131"/>
-      <c r="C11" s="106" t="s">
-        <v>110</v>
-      </c>
-      <c r="D11" s="106" t="s">
-        <v>110</v>
-      </c>
-      <c r="E11" s="106" t="s">
-        <v>107</v>
-      </c>
-      <c r="F11" s="106" t="s">
-        <v>107</v>
-      </c>
-      <c r="G11" s="92" t="s">
-        <v>108</v>
-      </c>
-      <c r="I11" s="106" t="s">
-        <v>109</v>
-      </c>
+      <c r="C11" s="91"/>
+      <c r="D11" s="91"/>
+      <c r="E11" s="91"/>
+      <c r="F11" s="91"/>
+      <c r="G11" s="91"/>
       <c r="J11" s="78"/>
       <c r="K11" s="136"/>
       <c r="L11" s="72"/>
@@ -12357,14 +12535,26 @@
     <row r="14" spans="2:16" s="3" customFormat="1" ht="73.150000000000006" customHeight="1" thickTop="1" thickBot="1">
       <c r="B14" s="131"/>
       <c r="C14" s="106" t="s">
-        <v>109</v>
-      </c>
-      <c r="D14" s="91"/>
-      <c r="E14" s="91"/>
-      <c r="F14" s="91"/>
-      <c r="G14" s="91"/>
-      <c r="H14" s="91"/>
-      <c r="I14" s="93"/>
+        <v>108</v>
+      </c>
+      <c r="D14" s="106" t="s">
+        <v>108</v>
+      </c>
+      <c r="E14" s="106" t="s">
+        <v>108</v>
+      </c>
+      <c r="F14" s="106" t="s">
+        <v>108</v>
+      </c>
+      <c r="G14" s="106" t="s">
+        <v>108</v>
+      </c>
+      <c r="H14" s="106" t="s">
+        <v>108</v>
+      </c>
+      <c r="I14" s="106" t="s">
+        <v>107</v>
+      </c>
       <c r="J14" s="71"/>
       <c r="K14" s="136"/>
       <c r="L14" s="72"/>
@@ -12391,7 +12581,7 @@
         <v>44651</v>
       </c>
       <c r="H15" s="134" t="s">
-        <v>35</v>
+        <v>116</v>
       </c>
       <c r="I15" s="134"/>
       <c r="J15" s="63"/>
@@ -12431,11 +12621,21 @@
     </row>
     <row r="17" spans="2:16" s="3" customFormat="1" ht="73.150000000000006" customHeight="1" thickTop="1" thickBot="1">
       <c r="B17" s="132"/>
-      <c r="C17" s="93"/>
-      <c r="D17" s="91"/>
-      <c r="E17" s="91"/>
-      <c r="F17" s="91"/>
-      <c r="G17" s="91"/>
+      <c r="C17" s="106" t="s">
+        <v>107</v>
+      </c>
+      <c r="D17" s="106" t="s">
+        <v>115</v>
+      </c>
+      <c r="E17" s="106" t="s">
+        <v>115</v>
+      </c>
+      <c r="F17" s="106" t="s">
+        <v>115</v>
+      </c>
+      <c r="G17" s="106" t="s">
+        <v>115</v>
+      </c>
       <c r="H17" s="134"/>
       <c r="I17" s="134"/>
       <c r="J17" s="79"/>
@@ -12520,7 +12720,7 @@
   </sheetPr>
   <dimension ref="B1:XDY22"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A10" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <selection activeCell="L11" sqref="L11"/>
     </sheetView>
   </sheetViews>
